--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="567">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -1684,6 +1684,39 @@
   </si>
   <si>
     <t xml:space="preserve">Terraform Udemy courses for Use cases. </t>
+  </si>
+  <si>
+    <t>16th MAR - GIT/GITHUB - Raj</t>
+  </si>
+  <si>
+    <t>23 - 27 April</t>
+  </si>
+  <si>
+    <t>28 - 29 March</t>
+  </si>
+  <si>
+    <t>30, 31, 1 April</t>
+  </si>
+  <si>
+    <t>4-10 APR</t>
+  </si>
+  <si>
+    <t>11 - 17 APR</t>
+  </si>
+  <si>
+    <t>18-20 APR</t>
+  </si>
+  <si>
+    <t>21-24 APR</t>
+  </si>
+  <si>
+    <t>25-1MAY</t>
+  </si>
+  <si>
+    <t>2  21 May</t>
+  </si>
+  <si>
+    <t>22 - 5 June</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1794,6 +1827,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1845,6 +1885,44 @@
         <a:xfrm>
           <a:off x="238125" y="2667000"/>
           <a:ext cx="9612066" cy="2572109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>487087</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>124161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="5715000"/>
+          <a:ext cx="9402487" cy="2410161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2145,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,11 +2392,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D369"/>
+  <dimension ref="A1:D370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A27"/>
+      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B370" sqref="B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,180 +2700,182 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="17">
         <v>44632</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="4" t="s">
+        <v>556</v>
+      </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="17">
         <v>44632</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="17">
         <v>44632</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="17">
         <v>44632</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="17">
         <v>44632</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="17">
         <v>44632</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="A36" s="17">
         <v>44632</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="A37" s="17">
         <v>44632</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="A38" s="17">
         <v>44632</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
-        <v>44633</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="17">
+        <v>44632</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>44633</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="17">
+        <v>44632</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>44633</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="17">
+        <v>44632</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>44633</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="17">
+        <v>44632</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>44633</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="17">
+        <v>44632</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>44633</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="17">
+        <v>44632</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>44633</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="17">
+        <v>44632</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
-        <v>44633</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="17">
+        <v>44632</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>44634</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="17">
+        <v>44633</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C47" s="2"/>
@@ -2814,20 +2894,20 @@
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
-        <v>44635</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="17">
+        <v>44633</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
-        <v>44635</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="17">
+        <v>44633</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="2"/>
@@ -2845,154 +2925,151 @@
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
-        <v>44636</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="17">
+        <v>44633</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="3" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
-        <v>44636</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="17">
+        <v>44633</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="4" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
-        <v>44636</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="A56" s="17">
+        <v>44633</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
-        <v>44636</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="A57" s="17">
+        <v>44633</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
-        <v>44636</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="17">
+        <v>44633</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
-        <v>44636</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="17">
+        <v>44633</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
-        <v>44636</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
-        <v>44636</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="A61" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
-        <v>44637</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
-        <v>44637</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="11">
-        <v>44637</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="A64" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
-        <v>44637</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="A65" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="11">
-        <v>44637</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="A66" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="11">
-        <v>44637</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="A67" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>44638</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="A68" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C68" s="2"/>
@@ -3010,60 +3087,60 @@
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
-        <v>44639</v>
-      </c>
-      <c r="B71" s="2" t="s">
+      <c r="A71" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
-        <v>44639</v>
-      </c>
-      <c r="B72" s="2" t="s">
+      <c r="A72" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>44639</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
-        <v>44639</v>
-      </c>
-      <c r="B74" s="2" t="s">
+      <c r="A74" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="11">
-        <v>44639</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="A75" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="11">
-        <v>44639</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="A76" s="17">
+        <v>44634</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C76" s="2"/>
@@ -3081,112 +3158,116 @@
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="11">
-        <v>44640</v>
-      </c>
-      <c r="B79" s="2" t="s">
+      <c r="A79" s="17">
+        <v>44635</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="4" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="11">
-        <v>44640</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="A80" s="17">
+        <v>44635</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="15" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="11">
-        <v>44640</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="A81" s="17">
+        <v>44635</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="D81" s="15" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="11">
-        <v>44640</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="A82" s="17">
+        <v>44635</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="11">
-        <v>44640</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="A83" s="17">
+        <v>44635</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="11">
-        <v>44640</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="A84" s="17">
+        <v>44635</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="11">
-        <v>44641</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="A85" s="17">
+        <v>44635</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="11">
-        <v>44641</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="A86" s="17">
+        <v>44635</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="11">
-        <v>44641</v>
-      </c>
-      <c r="B87" s="2" t="s">
+      <c r="A87" s="17">
+        <v>44635</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="11">
-        <v>44641</v>
-      </c>
-      <c r="B88" s="2" t="s">
+      <c r="A88" s="17">
+        <v>44635</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="11">
-        <v>44642</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="A89" s="17">
+        <v>44636</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C89" s="2"/>
@@ -3204,226 +3285,226 @@
       <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="11">
-        <v>44643</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="A92" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="4" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="11">
-        <v>44643</v>
-      </c>
-      <c r="B93" s="2" t="s">
+      <c r="A93" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="4" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="11">
-        <v>44643</v>
-      </c>
-      <c r="B94" s="2" t="s">
+      <c r="A94" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="4" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="11">
-        <v>44643</v>
-      </c>
-      <c r="B95" s="2" t="s">
+      <c r="A95" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="4" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="11">
-        <v>44643</v>
-      </c>
-      <c r="B96" s="2" t="s">
+      <c r="A96" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="4" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="11">
-        <v>44644</v>
-      </c>
-      <c r="B97" s="2" t="s">
+      <c r="A97" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="4" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="11">
-        <v>44644</v>
-      </c>
-      <c r="B98" s="2" t="s">
+      <c r="A98" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="15" t="s">
         <v>327</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="11">
-        <v>44644</v>
-      </c>
-      <c r="B99" s="2" t="s">
+      <c r="A99" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="15" t="s">
         <v>328</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="11">
-        <v>44644</v>
-      </c>
-      <c r="B100" s="2" t="s">
+      <c r="A100" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="15" t="s">
         <v>329</v>
       </c>
       <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="11">
-        <v>44645</v>
-      </c>
-      <c r="B101" s="2" t="s">
+      <c r="A101" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="15" t="s">
         <v>330</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="11">
-        <v>44645</v>
-      </c>
-      <c r="B102" s="2" t="s">
+      <c r="A102" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="15" t="s">
         <v>331</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="11">
-        <v>44645</v>
-      </c>
-      <c r="B103" s="2" t="s">
+      <c r="A103" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="15" t="s">
         <v>332</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="11">
-        <v>44645</v>
-      </c>
-      <c r="B104" s="2" t="s">
+      <c r="A104" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="15" t="s">
         <v>333</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="11">
-        <v>44646</v>
-      </c>
-      <c r="B105" s="2" t="s">
+      <c r="A105" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="15" t="s">
         <v>334</v>
       </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="11">
-        <v>44646</v>
-      </c>
-      <c r="B106" s="2" t="s">
+      <c r="A106" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="15" t="s">
         <v>256</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="11">
-        <v>44646</v>
-      </c>
-      <c r="B107" s="2" t="s">
+      <c r="A107" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="15" t="s">
         <v>335</v>
       </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="11">
-        <v>44646</v>
-      </c>
-      <c r="B108" s="2" t="s">
+      <c r="A108" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="15" t="s">
         <v>336</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="11">
-        <v>44647</v>
-      </c>
-      <c r="B109" s="2" t="s">
+      <c r="A109" s="17">
+        <v>44637</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C109" s="3"/>
@@ -3437,12 +3518,14 @@
       <c r="B111" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C111" s="2"/>
+      <c r="C111" s="18">
+        <v>44640</v>
+      </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
-        <v>44648</v>
+        <v>44639</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>2</v>
@@ -3456,7 +3539,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
-        <v>44648</v>
+        <v>44639</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>80</v>
@@ -3470,7 +3553,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
-        <v>44648</v>
+        <v>44639</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>81</v>
@@ -3484,7 +3567,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
-        <v>44648</v>
+        <v>44639</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>82</v>
@@ -3498,7 +3581,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
-        <v>44648</v>
+        <v>44639</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>83</v>
@@ -3512,7 +3595,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
-        <v>44648</v>
+        <v>44639</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>84</v>
@@ -3526,7 +3609,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
-        <v>44649</v>
+        <v>44639</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>85</v>
@@ -3538,7 +3621,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
-        <v>44649</v>
+        <v>44639</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>86</v>
@@ -3550,7 +3633,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
-        <v>44649</v>
+        <v>44639</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>87</v>
@@ -3562,7 +3645,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
-        <v>44649</v>
+        <v>44639</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>88</v>
@@ -3574,7 +3657,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
-        <v>44649</v>
+        <v>44639</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>89</v>
@@ -3588,7 +3671,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
-        <v>44650</v>
+        <v>44639</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>90</v>
@@ -3600,7 +3683,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
-        <v>44650</v>
+        <v>44639</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>91</v>
@@ -3612,7 +3695,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
-        <v>44650</v>
+        <v>44639</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>92</v>
@@ -3624,7 +3707,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
-        <v>44650</v>
+        <v>44639</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>93</v>
@@ -3636,7 +3719,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
-        <v>44651</v>
+        <v>44639</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>94</v>
@@ -3648,7 +3731,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
-        <v>44651</v>
+        <v>44639</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>95</v>
@@ -3660,7 +3743,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
-        <v>44651</v>
+        <v>44639</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>96</v>
@@ -3672,7 +3755,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
-        <v>44652</v>
+        <v>44639</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>475</v>
@@ -3690,12 +3773,14 @@
       <c r="B132" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
-        <v>44653</v>
+        <v>44641</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>2</v>
@@ -3709,7 +3794,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
-        <v>44653</v>
+        <v>44641</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>97</v>
@@ -3723,7 +3808,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
-        <v>44653</v>
+        <v>44641</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>98</v>
@@ -3733,7 +3818,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
-        <v>44653</v>
+        <v>44641</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>99</v>
@@ -3743,7 +3828,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
-        <v>44653</v>
+        <v>44641</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>100</v>
@@ -3753,7 +3838,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
-        <v>44653</v>
+        <v>44641</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>101</v>
@@ -3763,7 +3848,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
-        <v>44653</v>
+        <v>44641</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>102</v>
@@ -3773,7 +3858,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
-        <v>44654</v>
+        <v>44641</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>103</v>
@@ -3783,7 +3868,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
-        <v>44654</v>
+        <v>44641</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>104</v>
@@ -3793,7 +3878,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
-        <v>44654</v>
+        <v>44641</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>105</v>
@@ -3803,7 +3888,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
-        <v>44654</v>
+        <v>44641</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>106</v>
@@ -3813,7 +3898,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
-        <v>44654</v>
+        <v>44641</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>107</v>
@@ -3823,7 +3908,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="11">
-        <v>44654</v>
+        <v>44641</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>108</v>
@@ -3833,7 +3918,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="11">
-        <v>44654</v>
+        <v>44641</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>109</v>
@@ -3843,7 +3928,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
-        <v>44661</v>
+        <v>44641</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>475</v>
@@ -3857,10 +3942,15 @@
       <c r="D148" s="2"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="10" t="s">
+        <v>558</v>
+      </c>
       <c r="B149" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>559</v>
+      </c>
       <c r="D149" s="2"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4264,10 +4354,15 @@
       <c r="D179" s="2"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="19">
+        <v>44653</v>
+      </c>
       <c r="B180" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C180" s="2"/>
+      <c r="C180" s="18">
+        <v>44654</v>
+      </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4419,6 +4514,9 @@
       <c r="D193" s="2"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="10" t="s">
+        <v>560</v>
+      </c>
       <c r="B194" s="5" t="s">
         <v>459</v>
       </c>
@@ -4724,6 +4822,9 @@
       <c r="D222" s="2"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="10" t="s">
+        <v>561</v>
+      </c>
       <c r="B223" s="5" t="s">
         <v>460</v>
       </c>
@@ -5019,6 +5120,9 @@
       <c r="D252" s="2"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="10" t="s">
+        <v>562</v>
+      </c>
       <c r="B253" s="5" t="s">
         <v>461</v>
       </c>
@@ -5202,6 +5306,9 @@
       <c r="D271" s="2"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="10" t="s">
+        <v>563</v>
+      </c>
       <c r="B272" s="5" t="s">
         <v>474</v>
       </c>
@@ -5511,6 +5618,9 @@
       <c r="D302" s="2"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="10" t="s">
+        <v>564</v>
+      </c>
       <c r="B303" s="5" t="s">
         <v>494</v>
       </c>
@@ -5753,6 +5863,9 @@
       <c r="C323" s="2"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="10" t="s">
+        <v>565</v>
+      </c>
       <c r="B324" s="5" t="s">
         <v>551</v>
       </c>
@@ -5942,6 +6055,9 @@
       <c r="C345" s="3"/>
     </row>
     <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="10" t="s">
+        <v>566</v>
+      </c>
       <c r="B346" s="5" t="s">
         <v>552</v>
       </c>
@@ -6165,6 +6281,14 @@
         <v>44739</v>
       </c>
       <c r="B369" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="11">
+        <v>44718</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>496</v>
       </c>
     </row>
@@ -6260,7 +6384,7 @@
     <hyperlink ref="D195" r:id="rId88" display="https://www.youtube.com/watch?v=pCoCynze4Ag&amp;t=813s"/>
     <hyperlink ref="D150" r:id="rId89" display="https://www.youtube.com/watch?v=VOfMrWVVUzM"/>
     <hyperlink ref="D20" r:id="rId90" display="https://www.youtube.com/watch?v=n5B7-cYQd4s&amp;t=1209s"/>
-    <hyperlink ref="D54" r:id="rId91" display="https://www.youtube.com/watch?v=0bMTUjuI5eU"/>
+    <hyperlink ref="D80" r:id="rId91" display="https://www.youtube.com/watch?v=0bMTUjuI5eU"/>
     <hyperlink ref="B348" r:id="rId92" display="https://www.youtube.com/watch?v=OHuJkyRGPBc"/>
     <hyperlink ref="B349" r:id="rId93" display="https://www.youtube.com/watch?v=FduRn_u6ipQ&amp;t=3708s"/>
     <hyperlink ref="C352" r:id="rId94" display="https://www.youtube.com/watch?v=WfldvqyCxnk&amp;t=409s"/>
@@ -6275,9 +6399,10 @@
     <hyperlink ref="B228" r:id="rId103" display="https://www.youtube.com/watch?v=t8pPdKYpowI&amp;t=2173s"/>
     <hyperlink ref="B229" r:id="rId104" display="https://www.youtube.com/watch?v=t8pPdKYpowI&amp;t=2173s"/>
     <hyperlink ref="C3" r:id="rId105" display="https://www.youtube.com/watch?v=9pZ2xmsSDdo&amp;t=10s"/>
+    <hyperlink ref="D81" r:id="rId106" display="https://www.youtube.com/watch?v=n5B7-cYQd4s&amp;t=1209s"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId106"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId107"/>
 </worksheet>
 </file>
 

--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLines" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="602">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -1717,6 +1717,111 @@
   </si>
   <si>
     <t>22 - 5 June</t>
+  </si>
+  <si>
+    <t>Assign Parameters</t>
+  </si>
+  <si>
+    <t>disable username and credentials.</t>
+  </si>
+  <si>
+    <t>shared library -2</t>
+  </si>
+  <si>
+    <t>keeping track of changes of jenkins configurations</t>
+  </si>
+  <si>
+    <t>shared library -1</t>
+  </si>
+  <si>
+    <t>set jenkins jib to failure on specifc word</t>
+  </si>
+  <si>
+    <t>Jenkins Dynamic Parametrization</t>
+  </si>
+  <si>
+    <t>Jenkins backup</t>
+  </si>
+  <si>
+    <t>securing sensitive information</t>
+  </si>
+  <si>
+    <t>copy jenkins job from one machine to another</t>
+  </si>
+  <si>
+    <t>Difference between Build periodically and Poll SCM</t>
+  </si>
+  <si>
+    <t>Downgrading plugin in Jenkins</t>
+  </si>
+  <si>
+    <t>Jenkins Sonarqube integration using maven</t>
+  </si>
+  <si>
+    <t>commit based job in jenkins</t>
+  </si>
+  <si>
+    <t>End to end CI/CD project using jenkins - 01</t>
+  </si>
+  <si>
+    <t>End to end CI/CD project using jenkins - 04</t>
+  </si>
+  <si>
+    <t>End to end CI/CD project using jenkins - 05</t>
+  </si>
+  <si>
+    <t>Containers with Docker</t>
+  </si>
+  <si>
+    <t>Build Automation &amp; CI/CD with Jenkins</t>
+  </si>
+  <si>
+    <t>AWS Services</t>
+  </si>
+  <si>
+    <t>Container Orchestration with Kubernetes</t>
+  </si>
+  <si>
+    <t>Kubernetes on AWS - EKS</t>
+  </si>
+  <si>
+    <t>Infrastructure as Code with Terraform</t>
+  </si>
+  <si>
+    <t>Programming Basics with Python</t>
+  </si>
+  <si>
+    <t>Automation with Python</t>
+  </si>
+  <si>
+    <t>Configuration Management with Ansible</t>
+  </si>
+  <si>
+    <t>Monitoring with Prometheus</t>
+  </si>
+  <si>
+    <t>Udemy AWS</t>
+  </si>
+  <si>
+    <t>Nana K8S</t>
+  </si>
+  <si>
+    <t>Udemy K8S</t>
+  </si>
+  <si>
+    <t>Udemy KalyanD</t>
+  </si>
+  <si>
+    <t>Udemy AWS DevOps</t>
+  </si>
+  <si>
+    <t>Nana Terraform</t>
+  </si>
+  <si>
+    <t>Nana YT Python</t>
+  </si>
+  <si>
+    <t>Option Udemy Ansible</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1835,6 +1940,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1863,8 +1971,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>10866</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>29916</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>95609</xdr:rowOff>
     </xdr:to>
@@ -1901,8 +2009,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>487087</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1191937</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>124161</xdr:rowOff>
     </xdr:to>
@@ -2221,23 +2329,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="20">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2253,8 +2374,16 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="20">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2273,8 +2402,18 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="20">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2293,8 +2432,20 @@
       <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="20">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2313,8 +2464,20 @@
       <c r="F7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="20">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2330,8 +2493,20 @@
       <c r="F8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="20">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2347,8 +2522,18 @@
       <c r="F9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="20">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2364,8 +2549,16 @@
       <c r="F10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="20">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2375,8 +2568,28 @@
       <c r="F11" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="20">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="20">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>44739</v>
       </c>
@@ -2386,17 +2599,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D370"/>
+  <dimension ref="A1:E371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B370" sqref="B370"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3537,7 +3751,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>44639</v>
       </c>
@@ -3547,11 +3761,8 @@
       <c r="C113" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>44639</v>
       </c>
@@ -3564,8 +3775,11 @@
       <c r="D114" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>44639</v>
       </c>
@@ -3578,8 +3792,11 @@
       <c r="D115" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>44639</v>
       </c>
@@ -3592,8 +3809,11 @@
       <c r="D116" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>44639</v>
       </c>
@@ -3603,11 +3823,14 @@
       <c r="C117" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="3" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <v>44639</v>
       </c>
@@ -3618,8 +3841,11 @@
       <c r="D118" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>44639</v>
       </c>
@@ -3630,8 +3856,11 @@
       <c r="D119" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <v>44639</v>
       </c>
@@ -3642,10 +3871,13 @@
       <c r="D120" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>88</v>
@@ -3654,10 +3886,13 @@
       <c r="D121" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>89</v>
@@ -3668,10 +3903,13 @@
       <c r="D122" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>90</v>
@@ -3680,10 +3918,13 @@
       <c r="D123" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>91</v>
@@ -3692,10 +3933,13 @@
       <c r="D124" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>92</v>
@@ -3704,204 +3948,216 @@
       <c r="D125" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="11">
-        <v>44639</v>
-      </c>
-      <c r="B126" s="2" t="s">
+      <c r="E125" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="11"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E126" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="11">
+        <v>44640</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="11">
-        <v>44639</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="E127" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="11">
+        <v>44640</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="11">
-        <v>44639</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="E129" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>475</v>
+        <v>96</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E130" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="11">
+        <v>44640</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="5" t="s">
+      <c r="E131" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="11">
-        <v>44641</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <v>44641</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <v>44641</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <v>44641</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <v>44641</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <v>44641</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <v>44641</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <v>44641</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <v>44641</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
         <v>44641</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
         <v>44641</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <v>44641</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -3911,7 +4167,7 @@
         <v>44641</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -3921,7 +4177,7 @@
         <v>44641</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -3931,54 +4187,50 @@
         <v>44641</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>475</v>
+        <v>109</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="11"/>
+      <c r="A148" s="11">
+        <v>44641</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="11"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B150" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="11">
-        <v>44662</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>340</v>
-      </c>
+      <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="11">
         <v>44662</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3986,13 +4238,13 @@
         <v>44662</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4000,27 +4252,27 @@
         <v>44662</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>354</v>
+        <v>262</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="11">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4028,13 +4280,13 @@
         <v>44663</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4042,13 +4294,13 @@
         <v>44663</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4056,27 +4308,27 @@
         <v>44663</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="11">
-        <v>44664</v>
+        <v>44663</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4084,13 +4336,13 @@
         <v>44664</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4098,13 +4350,13 @@
         <v>44664</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4112,27 +4364,27 @@
         <v>44664</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="11">
-        <v>44665</v>
+        <v>44664</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4140,13 +4392,13 @@
         <v>44665</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4154,13 +4406,13 @@
         <v>44665</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4168,27 +4420,27 @@
         <v>44665</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="11">
-        <v>44666</v>
+        <v>44665</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4196,13 +4448,13 @@
         <v>44666</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4210,13 +4462,13 @@
         <v>44666</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4224,27 +4476,27 @@
         <v>44666</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="11">
-        <v>44667</v>
+        <v>44666</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4252,13 +4504,13 @@
         <v>44667</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4266,13 +4518,13 @@
         <v>44667</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4280,10 +4532,10 @@
         <v>44667</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>419</v>
@@ -4291,16 +4543,16 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="11">
-        <v>44668</v>
+        <v>44667</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>337</v>
+        <v>279</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4308,40 +4560,44 @@
         <v>44668</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>437</v>
+        <v>274</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="11">
-        <v>44669</v>
+        <v>44668</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C176" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="D176" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="11">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="C177" s="3"/>
-      <c r="D177" s="2"/>
+      <c r="D177" s="2" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="11">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>490</v>
@@ -4350,47 +4606,43 @@
       <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C179" s="2"/>
+      <c r="A179" s="11">
+        <v>44671</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C179" s="3"/>
       <c r="D179" s="2"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="19">
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="19">
         <v>44653</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B181" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C180" s="18">
+      <c r="C181" s="18">
         <v>44654</v>
       </c>
-      <c r="D180" s="2"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="11">
-        <v>44672</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="D181" s="2"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="11">
         <v>44672</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4398,13 +4650,13 @@
         <v>44672</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4412,48 +4664,52 @@
         <v>44672</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="11">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D185" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="11">
         <v>44673</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D186" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="11">
         <v>44673</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D187" s="2"/>
     </row>
@@ -4462,21 +4718,23 @@
         <v>44673</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="11">
-        <v>44674</v>
+        <v>44673</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C189" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="D189" s="2"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4484,7 +4742,7 @@
         <v>44674</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -4494,61 +4752,57 @@
         <v>44674</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="11">
-        <v>44675</v>
+        <v>44674</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>475</v>
+        <v>144</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="11">
+        <v>44675</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>459</v>
-      </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="11">
-        <v>44676</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>339</v>
-      </c>
+      <c r="A195" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="11">
         <v>44676</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>368</v>
+        <v>260</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4556,13 +4810,13 @@
         <v>44676</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4570,13 +4824,13 @@
         <v>44676</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4584,21 +4838,25 @@
         <v>44676</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D199" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="11">
         <v>44676</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C200" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4606,17 +4864,17 @@
         <v>44676</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="11">
-        <v>44677</v>
+        <v>44676</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -4626,7 +4884,7 @@
         <v>44677</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -4636,7 +4894,7 @@
         <v>44677</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -4646,7 +4904,7 @@
         <v>44677</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -4656,7 +4914,7 @@
         <v>44677</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -4666,7 +4924,7 @@
         <v>44677</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -4676,7 +4934,7 @@
         <v>44677</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -4686,17 +4944,17 @@
         <v>44677</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="11">
-        <v>44678</v>
+        <v>44677</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -4706,7 +4964,7 @@
         <v>44678</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -4716,7 +4974,7 @@
         <v>44678</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -4726,34 +4984,32 @@
         <v>44678</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>491</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C213" s="2"/>
       <c r="D213" s="2"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="11">
-        <v>44679</v>
+        <v>44678</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D214" s="2"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="11">
-        <v>44677</v>
+        <v>44679</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>555</v>
+        <v>492</v>
       </c>
       <c r="D215" s="2"/>
     </row>
@@ -4762,17 +5018,19 @@
         <v>44677</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C216" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="D216" s="2"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="11">
-        <v>44686</v>
+        <v>44677</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -4782,7 +5040,7 @@
         <v>44686</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -4792,7 +5050,7 @@
         <v>44686</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -4802,45 +5060,43 @@
         <v>44686</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="11">
-        <v>44687</v>
+        <v>44686</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>475</v>
+        <v>169</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="11">
+        <v>44687</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>460</v>
-      </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="11">
-        <v>44688</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>272</v>
-      </c>
+      <c r="A224" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C224" s="2"/>
       <c r="D224" s="2"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4848,10 +5104,10 @@
         <v>44688</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D225" s="2"/>
     </row>
@@ -4860,9 +5116,11 @@
         <v>44688</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C226" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="D226" s="2"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4870,24 +5128,24 @@
         <v>44688</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="11">
-        <v>44689</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>273</v>
+        <v>44688</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="11">
-        <v>44690</v>
+        <v>44689</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>273</v>
@@ -4897,10 +5155,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="11">
-        <v>44691</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>173</v>
+        <v>44690</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -4910,7 +5168,7 @@
         <v>44691</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -4920,7 +5178,7 @@
         <v>44691</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -4930,7 +5188,7 @@
         <v>44691</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -4940,7 +5198,7 @@
         <v>44691</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -4950,7 +5208,7 @@
         <v>44691</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -4960,17 +5218,17 @@
         <v>44691</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="11">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -4980,7 +5238,7 @@
         <v>44692</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -4990,7 +5248,7 @@
         <v>44692</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -5000,7 +5258,7 @@
         <v>44692</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -5010,7 +5268,7 @@
         <v>44692</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -5020,7 +5278,7 @@
         <v>44692</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -5030,7 +5288,7 @@
         <v>44692</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -5040,17 +5298,17 @@
         <v>44692</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="11">
-        <v>44693</v>
+        <v>44692</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -5060,7 +5318,7 @@
         <v>44693</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -5070,7 +5328,7 @@
         <v>44693</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -5080,34 +5338,34 @@
         <v>44693</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="11">
-        <v>44694</v>
+        <v>44693</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>475</v>
+        <v>191</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="11">
-        <v>44695</v>
+        <v>44694</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="11">
-        <v>44696</v>
+        <v>44695</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>477</v>
@@ -5116,25 +5374,25 @@
       <c r="D251" s="2"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="11">
+        <v>44696</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>477</v>
+      </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="11">
-        <v>44697</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>2</v>
+      <c r="A254" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -5144,29 +5402,29 @@
         <v>44697</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="C255" s="2"/>
-      <c r="D255" s="2" t="s">
-        <v>374</v>
-      </c>
+      <c r="D255" s="2"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="11">
         <v>44697</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
+      <c r="D256" s="2" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="11">
         <v>44697</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -5176,7 +5434,7 @@
         <v>44697</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -5186,17 +5444,17 @@
         <v>44697</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="11">
-        <v>44698</v>
+        <v>44697</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -5206,7 +5464,7 @@
         <v>44698</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -5216,7 +5474,7 @@
         <v>44698</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -5226,7 +5484,7 @@
         <v>44698</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -5236,7 +5494,7 @@
         <v>44698</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -5246,7 +5504,7 @@
         <v>44698</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -5256,17 +5514,17 @@
         <v>44698</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="11">
-        <v>44699</v>
+        <v>44698</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -5276,7 +5534,7 @@
         <v>44699</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -5286,61 +5544,57 @@
         <v>44699</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="11">
-        <v>44700</v>
+        <v>44699</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>475</v>
+        <v>206</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="11">
+        <v>44700</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>474</v>
-      </c>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="11">
-        <v>44701</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>372</v>
-      </c>
+      <c r="A273" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="11">
         <v>44701</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5348,17 +5602,21 @@
         <v>44701</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="11">
         <v>44701</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -5368,7 +5626,7 @@
         <v>44701</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -5378,7 +5636,7 @@
         <v>44701</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -5388,7 +5646,7 @@
         <v>44701</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -5398,7 +5656,7 @@
         <v>44701</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -5408,7 +5666,7 @@
         <v>44701</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -5418,37 +5676,37 @@
         <v>44701</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="11">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>478</v>
+        <v>216</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="11">
-        <v>44703</v>
+        <v>44702</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="11">
-        <v>44704</v>
+        <v>44703</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>217</v>
+        <v>479</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -5458,7 +5716,7 @@
         <v>44704</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -5468,7 +5726,7 @@
         <v>44704</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -5478,17 +5736,17 @@
         <v>44704</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="11">
-        <v>44705</v>
+        <v>44704</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -5498,7 +5756,7 @@
         <v>44705</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -5508,7 +5766,7 @@
         <v>44705</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -5518,7 +5776,7 @@
         <v>44705</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -5528,17 +5786,17 @@
         <v>44705</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="11">
-        <v>44706</v>
+        <v>44705</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -5548,7 +5806,7 @@
         <v>44706</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -5558,7 +5816,7 @@
         <v>44706</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -5568,7 +5826,7 @@
         <v>44706</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -5578,7 +5836,7 @@
         <v>44706</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -5588,7 +5846,7 @@
         <v>44706</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -5598,59 +5856,57 @@
         <v>44706</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="11">
-        <v>44707</v>
+        <v>44706</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>475</v>
+        <v>232</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="11">
+        <v>44707</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="11">
-        <v>44708</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>353</v>
-      </c>
+      <c r="A304" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="11">
         <v>44708</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C305" s="2"/>
-      <c r="D305" s="2" t="s">
-        <v>397</v>
+        <v>207</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5658,11 +5914,11 @@
         <v>44708</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5670,11 +5926,11 @@
         <v>44708</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5682,11 +5938,11 @@
         <v>44708</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5694,23 +5950,23 @@
         <v>44708</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="11">
-        <v>44709</v>
+        <v>44708</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5718,11 +5974,11 @@
         <v>44709</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5730,11 +5986,11 @@
         <v>44709</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5742,11 +5998,11 @@
         <v>44709</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5754,11 +6010,11 @@
         <v>44709</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5766,27 +6022,25 @@
         <v>44709</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>293</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C315" s="2"/>
       <c r="D315" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="11">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5794,13 +6048,13 @@
         <v>44710</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5808,21 +6062,23 @@
         <v>44710</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="11">
-        <v>44711</v>
+        <v>44710</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>287</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C319" s="2"/>
       <c r="D319" s="2"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5830,10 +6086,10 @@
         <v>44711</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="D320" s="2"/>
     </row>
@@ -5842,47 +6098,50 @@
         <v>44711</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D321" s="2"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="11">
+        <v>44711</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D322" s="2"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="11">
         <v>44712</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B323" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C322" s="3"/>
-      <c r="D322" s="2"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C323" s="2"/>
+      <c r="C323" s="3"/>
+      <c r="D323" s="2"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="10" t="s">
+      <c r="C324" s="2"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="B324" s="5" t="s">
+      <c r="B325" s="5" t="s">
         <v>551</v>
-      </c>
-      <c r="C324" s="2"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="11">
-        <v>44713</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="C325" s="2"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="11">
-        <v>44714</v>
+        <v>44713</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>480</v>
@@ -5891,7 +6150,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="11">
-        <v>44715</v>
+        <v>44714</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>480</v>
@@ -5900,16 +6159,16 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="11">
-        <v>44716</v>
+        <v>44715</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C328" s="2"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="11">
-        <v>44717</v>
+        <v>44716</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>481</v>
@@ -5918,7 +6177,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="11">
-        <v>44718</v>
+        <v>44717</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>481</v>
@@ -5927,25 +6186,25 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="11">
-        <v>44719</v>
+        <v>44718</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C331" s="2"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="11">
-        <v>44720</v>
+        <v>44719</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C332" s="2"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="11">
-        <v>44721</v>
+        <v>44720</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>483</v>
@@ -5954,7 +6213,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="11">
-        <v>44722</v>
+        <v>44721</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>483</v>
@@ -5963,34 +6222,34 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="11">
-        <v>44723</v>
+        <v>44722</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C335" s="2"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="11">
-        <v>44724</v>
+        <v>44723</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C336" s="2"/>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="11">
-        <v>44725</v>
+        <v>44724</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C337" s="2"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="11">
-        <v>44726</v>
+        <v>44725</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>487</v>
@@ -5999,7 +6258,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="11">
-        <v>44727</v>
+        <v>44726</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>487</v>
@@ -6008,25 +6267,25 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="11">
-        <v>44728</v>
+        <v>44727</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C340" s="2"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="11">
-        <v>44729</v>
+        <v>44728</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C341" s="2"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="11">
-        <v>44730</v>
+        <v>44729</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>493</v>
@@ -6035,56 +6294,54 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="11">
+        <v>44730</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C343" s="2"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="11">
         <v>44731</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C343" s="2"/>
-    </row>
-    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="11">
-        <v>44732</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>485</v>
       </c>
+      <c r="C344" s="2"/>
     </row>
     <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="11"/>
-      <c r="C345" s="3"/>
+      <c r="A345" s="11">
+        <v>44732</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="10" t="s">
+      <c r="A346" s="11"/>
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="B346" s="5" t="s">
+      <c r="B347" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="C347" s="3" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="11">
-        <v>44733</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="11">
-        <v>44734</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>343</v>
+        <v>44733</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -6092,10 +6349,10 @@
         <v>44734</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -6103,10 +6360,10 @@
         <v>44734</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -6114,10 +6371,10 @@
         <v>44734</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -6125,10 +6382,10 @@
         <v>44734</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -6136,21 +6393,21 @@
         <v>44734</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="11">
-        <v>44735</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>358</v>
+        <v>44734</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -6158,16 +6415,18 @@
         <v>44735</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C355" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="11">
         <v>44735</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C356" s="2"/>
     </row>
@@ -6176,7 +6435,7 @@
         <v>44735</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C357" s="2"/>
     </row>
@@ -6185,7 +6444,7 @@
         <v>44735</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C358" s="2"/>
     </row>
@@ -6194,16 +6453,16 @@
         <v>44735</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C359" s="2"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="11">
-        <v>44736</v>
+        <v>44735</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C360" s="2"/>
     </row>
@@ -6212,7 +6471,7 @@
         <v>44736</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C361" s="2"/>
     </row>
@@ -6221,7 +6480,7 @@
         <v>44736</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C362" s="2"/>
     </row>
@@ -6230,7 +6489,7 @@
         <v>44736</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C363" s="2"/>
     </row>
@@ -6239,7 +6498,7 @@
         <v>44736</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="C364" s="2"/>
     </row>
@@ -6248,47 +6507,56 @@
         <v>44736</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C365" s="2"/>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="11">
-        <v>44737</v>
+        <v>44736</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>434</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C366" s="2"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="11">
         <v>44737</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="11">
-        <v>44738</v>
+        <v>44737</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="11">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="11">
+        <v>44739</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="11">
         <v>44718</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B371" s="2" t="s">
         <v>496</v>
       </c>
     </row>
@@ -6297,112 +6565,114 @@
     <hyperlink ref="C122" r:id="rId1" display="https://www.youtube.com/watch?v=3EEZmSwMXp8"/>
     <hyperlink ref="C7" r:id="rId2" display="https://www.youtube.com/watch?v=OnK4IKgLl24"/>
     <hyperlink ref="C4" r:id="rId3" display="https://www.youtube.com/watch?v=0yWAtQ6wYNM&amp;t=505s"/>
-    <hyperlink ref="C317" r:id="rId4" display="https://www.youtube.com/watch?v=OqCK95AS-YE"/>
+    <hyperlink ref="C318" r:id="rId4" display="https://www.youtube.com/watch?v=OqCK95AS-YE"/>
     <hyperlink ref="C106" r:id="rId5" display="https://www.youtube.com/watch?v=8vXoMqWgbQQ"/>
-    <hyperlink ref="C346" r:id="rId6" display="https://www.youtube.com/watch?v=MeU5_k9ssrs"/>
-    <hyperlink ref="C150" r:id="rId7" display="https://www.youtube.com/watch?v=s_o8dwzRlu4"/>
-    <hyperlink ref="C151" r:id="rId8" display="https://www.youtube.com/watch?v=pDrjQWo3CxI"/>
-    <hyperlink ref="C195" r:id="rId9" display="https://www.youtube.com/watch?v=gxPykhPxRW0"/>
+    <hyperlink ref="C347" r:id="rId6" display="https://www.youtube.com/watch?v=MeU5_k9ssrs"/>
+    <hyperlink ref="C151" r:id="rId7" display="https://www.youtube.com/watch?v=s_o8dwzRlu4"/>
+    <hyperlink ref="C152" r:id="rId8" display="https://www.youtube.com/watch?v=pDrjQWo3CxI"/>
+    <hyperlink ref="C196" r:id="rId9" display="https://www.youtube.com/watch?v=gxPykhPxRW0"/>
     <hyperlink ref="C11" r:id="rId10" display="https://www.youtube.com/watch?v=mQP0wqNT_DI"/>
-    <hyperlink ref="C152" r:id="rId11" display="https://www.youtube.com/watch?v=01qcYSck1c4"/>
-    <hyperlink ref="C153" r:id="rId12" display="https://www.youtube.com/watch?v=hgUfH9Ab258"/>
-    <hyperlink ref="C347" r:id="rId13" display="https://www.youtube.com/watch?v=f5EpcWp0THw"/>
-    <hyperlink ref="C196" r:id="rId14" display="https://www.youtube.com/watch?v=vIjeiDcsR3Q"/>
-    <hyperlink ref="C175" r:id="rId15" display="https://www.youtube.com/watch?v=nrhxNNH5lt0"/>
-    <hyperlink ref="C348" r:id="rId16" display="https://www.youtube.com/watch?v=zqi4fDF-S60"/>
-    <hyperlink ref="C273" r:id="rId17" display="https://www.youtube.com/watch?v=lhFvMsy6VX8"/>
+    <hyperlink ref="C153" r:id="rId11" display="https://www.youtube.com/watch?v=01qcYSck1c4"/>
+    <hyperlink ref="C154" r:id="rId12" display="https://www.youtube.com/watch?v=hgUfH9Ab258"/>
+    <hyperlink ref="C348" r:id="rId13" display="https://www.youtube.com/watch?v=f5EpcWp0THw"/>
+    <hyperlink ref="C197" r:id="rId14" display="https://www.youtube.com/watch?v=vIjeiDcsR3Q"/>
+    <hyperlink ref="C176" r:id="rId15" display="https://www.youtube.com/watch?v=nrhxNNH5lt0"/>
+    <hyperlink ref="C349" r:id="rId16" display="https://www.youtube.com/watch?v=zqi4fDF-S60"/>
+    <hyperlink ref="C274" r:id="rId17" display="https://www.youtube.com/watch?v=lhFvMsy6VX8"/>
     <hyperlink ref="C6" r:id="rId18" display="https://www.youtube.com/watch?v=qkj5W98Xdvw"/>
-    <hyperlink ref="C321" r:id="rId19" display="https://www.youtube.com/watch?v=B2IS-XS-cc0"/>
-    <hyperlink ref="C154" r:id="rId20" display="https://www.youtube.com/watch?v=_f8QfKx4rws"/>
-    <hyperlink ref="C224" r:id="rId21" display="https://www.youtube.com/watch?v=6u5NE1GiQDk"/>
-    <hyperlink ref="C225" r:id="rId22" display="https://www.youtube.com/watch?v=t8pPdKYpowI&amp;t=2173s"/>
-    <hyperlink ref="C174" r:id="rId23" display="https://www.youtube.com/watch?v=voAyroDb6xk"/>
-    <hyperlink ref="C155" r:id="rId24" display="https://www.youtube.com/watch?v=tt7hope6zU0"/>
-    <hyperlink ref="C197" r:id="rId25" display="https://www.youtube.com/watch?v=m3cKkYXl-8o"/>
-    <hyperlink ref="C320" r:id="rId26" display="https://www.youtube.com/watch?v=5ofsNyHZwWE"/>
-    <hyperlink ref="C349" r:id="rId27" display="https://www.youtube.com/watch?v=kgfg8r6_zPk"/>
-    <hyperlink ref="C173" r:id="rId28" display="https://www.youtube.com/watch?v=16fgzklcF7Y"/>
-    <hyperlink ref="C156" r:id="rId29" display="https://www.youtube.com/watch?v=7KUdmFyefSA"/>
-    <hyperlink ref="C181" r:id="rId30" display="https://www.youtube.com/watch?v=AYAh6YDXuho&amp;t=1149s"/>
-    <hyperlink ref="C157" r:id="rId31" display="https://www.youtube.com/watch?v=X48VuDVv0do"/>
-    <hyperlink ref="C158" r:id="rId32" display="https://www.youtube.com/watch?v=T4Z7visMM4E"/>
+    <hyperlink ref="C322" r:id="rId19" display="https://www.youtube.com/watch?v=B2IS-XS-cc0"/>
+    <hyperlink ref="C155" r:id="rId20" display="https://www.youtube.com/watch?v=_f8QfKx4rws"/>
+    <hyperlink ref="C225" r:id="rId21" display="https://www.youtube.com/watch?v=6u5NE1GiQDk"/>
+    <hyperlink ref="C226" r:id="rId22" display="https://www.youtube.com/watch?v=t8pPdKYpowI&amp;t=2173s"/>
+    <hyperlink ref="C175" r:id="rId23" display="https://www.youtube.com/watch?v=voAyroDb6xk"/>
+    <hyperlink ref="C156" r:id="rId24" display="https://www.youtube.com/watch?v=tt7hope6zU0"/>
+    <hyperlink ref="C198" r:id="rId25" display="https://www.youtube.com/watch?v=m3cKkYXl-8o"/>
+    <hyperlink ref="C321" r:id="rId26" display="https://www.youtube.com/watch?v=5ofsNyHZwWE"/>
+    <hyperlink ref="C350" r:id="rId27" display="https://www.youtube.com/watch?v=kgfg8r6_zPk"/>
+    <hyperlink ref="C174" r:id="rId28" display="https://www.youtube.com/watch?v=16fgzklcF7Y"/>
+    <hyperlink ref="C157" r:id="rId29" display="https://www.youtube.com/watch?v=7KUdmFyefSA"/>
+    <hyperlink ref="C182" r:id="rId30" display="https://www.youtube.com/watch?v=AYAh6YDXuho&amp;t=1149s"/>
+    <hyperlink ref="C158" r:id="rId31" display="https://www.youtube.com/watch?v=X48VuDVv0do"/>
+    <hyperlink ref="C159" r:id="rId32" display="https://www.youtube.com/watch?v=T4Z7visMM4E"/>
     <hyperlink ref="C92" r:id="rId33" display="https://www.youtube.com/watch?v=3c-iBn73dDE&amp;t=9029s"/>
-    <hyperlink ref="C350" r:id="rId34" display="https://www.youtube.com/watch?v=R8_veQiYBjI"/>
-    <hyperlink ref="C316" r:id="rId35" display="https://www.youtube.com/watch?v=mLPg49b33sA"/>
-    <hyperlink ref="C319" r:id="rId36" display="https://www.youtube.com/watch?v=I5c8Pfg2tys"/>
-    <hyperlink ref="C182" r:id="rId37" display="https://www.youtube.com/watch?v=p6xDCz00TxU"/>
-    <hyperlink ref="C198" r:id="rId38" display="https://www.youtube.com/watch?v=POPP2WTJ8es"/>
-    <hyperlink ref="C159" r:id="rId39" display="https://www.youtube.com/watch?v=ha3LjlD6g7g"/>
-    <hyperlink ref="C172" r:id="rId40" display="https://www.youtube.com/watch?v=JGtJj_nAA2s"/>
-    <hyperlink ref="C160" r:id="rId41" display="https://www.youtube.com/watch?v=k-V3_zxRasM"/>
-    <hyperlink ref="C315" r:id="rId42" display="https://www.youtube.com/watch?v=QoDqxm7ybLc"/>
-    <hyperlink ref="C199" r:id="rId43" display="https://www.youtube.com/watch?v=l5k1ai_GBDE&amp;t=1s"/>
+    <hyperlink ref="C351" r:id="rId34" display="https://www.youtube.com/watch?v=R8_veQiYBjI"/>
+    <hyperlink ref="C317" r:id="rId35" display="https://www.youtube.com/watch?v=mLPg49b33sA"/>
+    <hyperlink ref="C320" r:id="rId36" display="https://www.youtube.com/watch?v=I5c8Pfg2tys"/>
+    <hyperlink ref="C183" r:id="rId37" display="https://www.youtube.com/watch?v=p6xDCz00TxU"/>
+    <hyperlink ref="C199" r:id="rId38" display="https://www.youtube.com/watch?v=POPP2WTJ8es"/>
+    <hyperlink ref="C160" r:id="rId39" display="https://www.youtube.com/watch?v=ha3LjlD6g7g"/>
+    <hyperlink ref="C173" r:id="rId40" display="https://www.youtube.com/watch?v=JGtJj_nAA2s"/>
+    <hyperlink ref="C161" r:id="rId41" display="https://www.youtube.com/watch?v=k-V3_zxRasM"/>
+    <hyperlink ref="C316" r:id="rId42" display="https://www.youtube.com/watch?v=QoDqxm7ybLc"/>
+    <hyperlink ref="C200" r:id="rId43" display="https://www.youtube.com/watch?v=l5k1ai_GBDE&amp;t=1s"/>
     <hyperlink ref="C93" r:id="rId44" display="https://www.youtube.com/watch?v=1uFVr15xDGg"/>
-    <hyperlink ref="C161" r:id="rId45" display="https://www.youtube.com/watch?v=pPQKAR1pA9U"/>
-    <hyperlink ref="C162" r:id="rId46" display="https://www.youtube.com/watch?v=asIS4KIs40M"/>
-    <hyperlink ref="C163" r:id="rId47" display="https://www.youtube.com/watch?v=FAnQTgr04mU"/>
-    <hyperlink ref="C164" r:id="rId48" display="https://www.youtube.com/watch?v=0swOh5C3OVM"/>
-    <hyperlink ref="C165" r:id="rId49" display="https://www.youtube.com/watch?v=5cNrTU6o3Fw"/>
-    <hyperlink ref="C304" r:id="rId50" display="https://www.youtube.com/watch?v=h4Sl21AKiDg"/>
-    <hyperlink ref="C274" r:id="rId51" display="https://www.youtube.com/watch?v=1id6ERvfozo&amp;t=1s"/>
+    <hyperlink ref="C162" r:id="rId45" display="https://www.youtube.com/watch?v=pPQKAR1pA9U"/>
+    <hyperlink ref="C163" r:id="rId46" display="https://www.youtube.com/watch?v=asIS4KIs40M"/>
+    <hyperlink ref="C164" r:id="rId47" display="https://www.youtube.com/watch?v=FAnQTgr04mU"/>
+    <hyperlink ref="C165" r:id="rId48" display="https://www.youtube.com/watch?v=0swOh5C3OVM"/>
+    <hyperlink ref="C166" r:id="rId49" display="https://www.youtube.com/watch?v=5cNrTU6o3Fw"/>
+    <hyperlink ref="C305" r:id="rId50" display="https://www.youtube.com/watch?v=h4Sl21AKiDg"/>
+    <hyperlink ref="C275" r:id="rId51" display="https://www.youtube.com/watch?v=1id6ERvfozo&amp;t=1s"/>
     <hyperlink ref="C5" r:id="rId52" display="https://www.youtube.com/watch?v=vcRmKtL4o_4"/>
-    <hyperlink ref="C166" r:id="rId53" display="https://www.youtube.com/watch?v=-ykwb1d0DXU"/>
-    <hyperlink ref="C167" r:id="rId54" display="https://www.youtube.com/watch?v=80Ew_fsV4rM"/>
+    <hyperlink ref="C167" r:id="rId53" display="https://www.youtube.com/watch?v=-ykwb1d0DXU"/>
+    <hyperlink ref="C168" r:id="rId54" display="https://www.youtube.com/watch?v=80Ew_fsV4rM"/>
     <hyperlink ref="C112" r:id="rId55" display="https://www.youtube.com/watch?v=7KCS70sCoK0"/>
-    <hyperlink ref="C113" r:id="rId56" display="https://www.youtube.com/watch?v=L9Ite-1pEU8"/>
-    <hyperlink ref="C168" r:id="rId57" display="https://www.youtube.com/watch?v=K3jNo4z5Jx8"/>
-    <hyperlink ref="C169" r:id="rId58" display="https://www.youtube.com/watch?v=EQNO_kM96Mo&amp;t=1522s"/>
-    <hyperlink ref="C117" r:id="rId59" display="https://www.youtube.com/watch?v=CmwTPxdx24Y"/>
-    <hyperlink ref="C116" r:id="rId60" display="https://www.youtube.com/watch?v=MY1w7sWW5ms"/>
-    <hyperlink ref="C115" r:id="rId61" display="https://www.youtube.com/watch?v=tuxO7ZXplRE"/>
-    <hyperlink ref="C114" r:id="rId62" display="https://www.youtube.com/watch?v=pMO26j2OUME"/>
-    <hyperlink ref="C170" r:id="rId63" display="https://www.youtube.com/watch?v=qmDzcu5uY1I"/>
-    <hyperlink ref="C171" r:id="rId64" display="https://www.youtube.com/watch?v=azuwXALfyRg"/>
-    <hyperlink ref="C351" r:id="rId65" display="https://www.youtube.com/watch?v=9e6sUNhAB4M"/>
-    <hyperlink ref="C183" r:id="rId66" display="https://www.youtube.com/watch?v=E2pP1MOfo3g"/>
-    <hyperlink ref="C184" r:id="rId67" display="https://www.youtube.com/watch?v=g8Sf-6EsgZM"/>
-    <hyperlink ref="C185" r:id="rId68" display="https://www.youtube.com/watch?v=umXEmn3cMWY"/>
-    <hyperlink ref="C186" r:id="rId69" display="https://www.youtube.com/watch?v=Krpb44XR0bk"/>
-    <hyperlink ref="C187" r:id="rId70" display="https://www.youtube.com/watch?v=VnvRFRk_51k"/>
-    <hyperlink ref="C188" r:id="rId71" display="https://www.youtube.com/watch?v=9_s3h_GVzZc"/>
-    <hyperlink ref="C94" r:id="rId72" display="https://www.youtube.com/watch?v=SBUCYJgg4Mk"/>
-    <hyperlink ref="C95" r:id="rId73" display="https://www.youtube.com/watch?v=ZowjOhpAcIc"/>
-    <hyperlink ref="C96" r:id="rId74" display="https://www.youtube.com/watch?v=p2PH_YPCsis"/>
-    <hyperlink ref="C97" r:id="rId75" display="https://www.youtube.com/watch?v=vWSRWpOPHws"/>
-    <hyperlink ref="C98" r:id="rId76" display="https://www.youtube.com/watch?v=WmcdMiyqfZs&amp;t=2s"/>
-    <hyperlink ref="C99" r:id="rId77" display="https://www.youtube.com/watch?v=MVIcrmeV_6c"/>
-    <hyperlink ref="C100" r:id="rId78" display="https://www.youtube.com/watch?v=6YisG2GcXaw"/>
-    <hyperlink ref="C101" r:id="rId79" display="https://www.youtube.com/watch?v=YdKUkDe22RA"/>
-    <hyperlink ref="C102" r:id="rId80" display="https://www.youtube.com/watch?v=5GanJdbHlAA"/>
-    <hyperlink ref="C103" r:id="rId81" display="https://www.youtube.com/watch?v=tLK9nNFHWH8"/>
-    <hyperlink ref="C104" r:id="rId82" display="https://www.youtube.com/watch?v=xGn7cFR3ARU"/>
-    <hyperlink ref="C105" r:id="rId83" display="https://www.youtube.com/watch?v=wH9XesmPUOk"/>
-    <hyperlink ref="C107" r:id="rId84" display="https://www.youtube.com/watch?v=GeqaTjKMWeY"/>
-    <hyperlink ref="C108" r:id="rId85" display="https://www.youtube.com/watch?v=jPdIRX6q4jA"/>
-    <hyperlink ref="D174" r:id="rId86" display="https://www.youtube.com/watch?v=ZvG8rfJ4XxM"/>
-    <hyperlink ref="D112" r:id="rId87" display="https://www.youtube.com/watch?v=G8wVM5irp0k&amp;t=1319s"/>
-    <hyperlink ref="D195" r:id="rId88" display="https://www.youtube.com/watch?v=pCoCynze4Ag&amp;t=813s"/>
-    <hyperlink ref="D150" r:id="rId89" display="https://www.youtube.com/watch?v=VOfMrWVVUzM"/>
-    <hyperlink ref="D20" r:id="rId90" display="https://www.youtube.com/watch?v=n5B7-cYQd4s&amp;t=1209s"/>
-    <hyperlink ref="D80" r:id="rId91" display="https://www.youtube.com/watch?v=0bMTUjuI5eU"/>
-    <hyperlink ref="B348" r:id="rId92" display="https://www.youtube.com/watch?v=OHuJkyRGPBc"/>
-    <hyperlink ref="B349" r:id="rId93" display="https://www.youtube.com/watch?v=FduRn_u6ipQ&amp;t=3708s"/>
-    <hyperlink ref="C352" r:id="rId94" display="https://www.youtube.com/watch?v=WfldvqyCxnk&amp;t=409s"/>
-    <hyperlink ref="C353" r:id="rId95" display="https://www.youtube.com/watch?v=lUQaA9hvEX4&amp;t=14s"/>
-    <hyperlink ref="D151" r:id="rId96" display="https://www.youtube.com/watch?v=adG0vq5boL8&amp;t=10952s"/>
-    <hyperlink ref="B350" r:id="rId97" display="https://www.youtube.com/watch?v=GbpBvMxk1fI&amp;t=458s"/>
-    <hyperlink ref="B351" r:id="rId98" display="https://www.youtube.com/watch?v=yPoDiW04qIo&amp;t=4276s"/>
-    <hyperlink ref="B352" r:id="rId99" display="https://www.youtube.com/watch?v=Bf1Eq6ocskE&amp;t=3346s"/>
-    <hyperlink ref="B353" r:id="rId100" display="https://www.youtube.com/watch?v=OrO5Q93wnm4&amp;t=1377s"/>
-    <hyperlink ref="D152" r:id="rId101" display="https://www.youtube.com/watch?v=-dyxS2XD_ME&amp;t=2091s"/>
-    <hyperlink ref="D304" r:id="rId102" display="https://www.youtube.com/watch?v=FaQk1qDnBUM&amp;t=1s"/>
-    <hyperlink ref="B228" r:id="rId103" display="https://www.youtube.com/watch?v=t8pPdKYpowI&amp;t=2173s"/>
-    <hyperlink ref="B229" r:id="rId104" display="https://www.youtube.com/watch?v=t8pPdKYpowI&amp;t=2173s"/>
-    <hyperlink ref="C3" r:id="rId105" display="https://www.youtube.com/watch?v=9pZ2xmsSDdo&amp;t=10s"/>
-    <hyperlink ref="D81" r:id="rId106" display="https://www.youtube.com/watch?v=n5B7-cYQd4s&amp;t=1209s"/>
+    <hyperlink ref="C169" r:id="rId56" display="https://www.youtube.com/watch?v=K3jNo4z5Jx8"/>
+    <hyperlink ref="C170" r:id="rId57" display="https://www.youtube.com/watch?v=EQNO_kM96Mo&amp;t=1522s"/>
+    <hyperlink ref="C117" r:id="rId58" display="https://www.youtube.com/watch?v=CmwTPxdx24Y"/>
+    <hyperlink ref="C116" r:id="rId59" display="https://www.youtube.com/watch?v=MY1w7sWW5ms"/>
+    <hyperlink ref="C115" r:id="rId60" display="https://www.youtube.com/watch?v=tuxO7ZXplRE"/>
+    <hyperlink ref="C114" r:id="rId61" display="https://www.youtube.com/watch?v=pMO26j2OUME"/>
+    <hyperlink ref="C171" r:id="rId62" display="https://www.youtube.com/watch?v=qmDzcu5uY1I"/>
+    <hyperlink ref="C172" r:id="rId63" display="https://www.youtube.com/watch?v=azuwXALfyRg"/>
+    <hyperlink ref="C352" r:id="rId64" display="https://www.youtube.com/watch?v=9e6sUNhAB4M"/>
+    <hyperlink ref="C184" r:id="rId65" display="https://www.youtube.com/watch?v=E2pP1MOfo3g"/>
+    <hyperlink ref="C185" r:id="rId66" display="https://www.youtube.com/watch?v=g8Sf-6EsgZM"/>
+    <hyperlink ref="C186" r:id="rId67" display="https://www.youtube.com/watch?v=umXEmn3cMWY"/>
+    <hyperlink ref="C187" r:id="rId68" display="https://www.youtube.com/watch?v=Krpb44XR0bk"/>
+    <hyperlink ref="C188" r:id="rId69" display="https://www.youtube.com/watch?v=VnvRFRk_51k"/>
+    <hyperlink ref="C189" r:id="rId70" display="https://www.youtube.com/watch?v=9_s3h_GVzZc"/>
+    <hyperlink ref="C94" r:id="rId71" display="https://www.youtube.com/watch?v=SBUCYJgg4Mk"/>
+    <hyperlink ref="C95" r:id="rId72" display="https://www.youtube.com/watch?v=ZowjOhpAcIc"/>
+    <hyperlink ref="C96" r:id="rId73" display="https://www.youtube.com/watch?v=p2PH_YPCsis"/>
+    <hyperlink ref="C97" r:id="rId74" display="https://www.youtube.com/watch?v=vWSRWpOPHws"/>
+    <hyperlink ref="C98" r:id="rId75" display="https://www.youtube.com/watch?v=WmcdMiyqfZs&amp;t=2s"/>
+    <hyperlink ref="C99" r:id="rId76" display="https://www.youtube.com/watch?v=MVIcrmeV_6c"/>
+    <hyperlink ref="C100" r:id="rId77" display="https://www.youtube.com/watch?v=6YisG2GcXaw"/>
+    <hyperlink ref="C101" r:id="rId78" display="https://www.youtube.com/watch?v=YdKUkDe22RA"/>
+    <hyperlink ref="C102" r:id="rId79" display="https://www.youtube.com/watch?v=5GanJdbHlAA"/>
+    <hyperlink ref="C103" r:id="rId80" display="https://www.youtube.com/watch?v=tLK9nNFHWH8"/>
+    <hyperlink ref="C104" r:id="rId81" display="https://www.youtube.com/watch?v=xGn7cFR3ARU"/>
+    <hyperlink ref="C105" r:id="rId82" display="https://www.youtube.com/watch?v=wH9XesmPUOk"/>
+    <hyperlink ref="C107" r:id="rId83" display="https://www.youtube.com/watch?v=GeqaTjKMWeY"/>
+    <hyperlink ref="C108" r:id="rId84" display="https://www.youtube.com/watch?v=jPdIRX6q4jA"/>
+    <hyperlink ref="D175" r:id="rId85" display="https://www.youtube.com/watch?v=ZvG8rfJ4XxM"/>
+    <hyperlink ref="D112" r:id="rId86" display="https://www.youtube.com/watch?v=G8wVM5irp0k&amp;t=1319s"/>
+    <hyperlink ref="D196" r:id="rId87" display="https://www.youtube.com/watch?v=pCoCynze4Ag&amp;t=813s"/>
+    <hyperlink ref="D151" r:id="rId88" display="https://www.youtube.com/watch?v=VOfMrWVVUzM"/>
+    <hyperlink ref="D20" r:id="rId89" display="https://www.youtube.com/watch?v=n5B7-cYQd4s&amp;t=1209s"/>
+    <hyperlink ref="D80" r:id="rId90" display="https://www.youtube.com/watch?v=0bMTUjuI5eU"/>
+    <hyperlink ref="B349" r:id="rId91" display="https://www.youtube.com/watch?v=OHuJkyRGPBc"/>
+    <hyperlink ref="B350" r:id="rId92" display="https://www.youtube.com/watch?v=FduRn_u6ipQ&amp;t=3708s"/>
+    <hyperlink ref="C353" r:id="rId93" display="https://www.youtube.com/watch?v=WfldvqyCxnk&amp;t=409s"/>
+    <hyperlink ref="C354" r:id="rId94" display="https://www.youtube.com/watch?v=lUQaA9hvEX4&amp;t=14s"/>
+    <hyperlink ref="D152" r:id="rId95" display="https://www.youtube.com/watch?v=adG0vq5boL8&amp;t=10952s"/>
+    <hyperlink ref="B351" r:id="rId96" display="https://www.youtube.com/watch?v=GbpBvMxk1fI&amp;t=458s"/>
+    <hyperlink ref="B352" r:id="rId97" display="https://www.youtube.com/watch?v=yPoDiW04qIo&amp;t=4276s"/>
+    <hyperlink ref="B353" r:id="rId98" display="https://www.youtube.com/watch?v=Bf1Eq6ocskE&amp;t=3346s"/>
+    <hyperlink ref="B354" r:id="rId99" display="https://www.youtube.com/watch?v=OrO5Q93wnm4&amp;t=1377s"/>
+    <hyperlink ref="D153" r:id="rId100" display="https://www.youtube.com/watch?v=-dyxS2XD_ME&amp;t=2091s"/>
+    <hyperlink ref="D305" r:id="rId101" display="https://www.youtube.com/watch?v=FaQk1qDnBUM&amp;t=1s"/>
+    <hyperlink ref="B229" r:id="rId102" display="https://www.youtube.com/watch?v=t8pPdKYpowI&amp;t=2173s"/>
+    <hyperlink ref="B230" r:id="rId103" display="https://www.youtube.com/watch?v=t8pPdKYpowI&amp;t=2173s"/>
+    <hyperlink ref="C3" r:id="rId104" display="https://www.youtube.com/watch?v=9pZ2xmsSDdo&amp;t=10s"/>
+    <hyperlink ref="D81" r:id="rId105" display="https://www.youtube.com/watch?v=n5B7-cYQd4s&amp;t=1209s"/>
+    <hyperlink ref="C113" r:id="rId106" display="https://www.youtube.com/watch?v=L9Ite-1pEU8"/>
+    <hyperlink ref="D117" r:id="rId107"/>
+    <hyperlink ref="D126" r:id="rId108"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId107"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId109"/>
 </worksheet>
 </file>
 

--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLines" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="626">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -1822,6 +1822,78 @@
   </si>
   <si>
     <t>Option Udemy Ansible</t>
+  </si>
+  <si>
+    <t>Frame Questions in every video.</t>
+  </si>
+  <si>
+    <t>Understand each video and write in summary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understand the concepts. What problem it tries to solve. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIT, BUILD, Artifact Repository </t>
+  </si>
+  <si>
+    <t>All Interview Questions</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not necessary to execute the Exercises but need to be </t>
+  </si>
+  <si>
+    <t>able to write Docker file, Docker compose, Jenkinsfile,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaml manifest files, All the necceessary files. </t>
+  </si>
+  <si>
+    <t>Need to Diminish Sleep for 70 Days</t>
+  </si>
+  <si>
+    <t>Do not deviate from main goal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not celebrate for small achievements or small findings. </t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Dad</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>DevSecOps</t>
+  </si>
+  <si>
+    <t>Udemy</t>
+  </si>
+  <si>
+    <t>DevOps Flow</t>
+  </si>
+  <si>
+    <t>Packer AMI</t>
+  </si>
+  <si>
+    <t>Terraform EKS creation</t>
+  </si>
+  <si>
+    <t>Terraform CICD</t>
+  </si>
+  <si>
+    <t>Terraform EFK</t>
+  </si>
+  <si>
+    <t>Kubernetes EFK</t>
   </si>
 </sst>
 </file>
@@ -1901,7 +1973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1943,6 +2015,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1959,87 +2039,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>29916</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95609</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="238125" y="2667000"/>
-          <a:ext cx="9612066" cy="2572109"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1191937</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>124161</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="314325" y="5715000"/>
-          <a:ext cx="9402487" cy="2410161"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2329,10 +2328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K13"/>
+  <dimension ref="A2:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,22 +2342,34 @@
     <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="20">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H3" s="24">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>9</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2374,16 +2385,28 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="24">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>130</v>
+      </c>
+      <c r="O4">
+        <v>1130</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2402,18 +2425,30 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="24">
         <v>9</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>330</v>
+      </c>
+      <c r="O5">
+        <v>530</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2444,8 +2479,18 @@
       <c r="K6" s="2" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="21">
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <f>SUM(P3:P5)</f>
+        <v>15</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2476,8 +2521,23 @@
       <c r="K7" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="21">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1130</v>
+      </c>
+      <c r="O7">
+        <v>330</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2505,8 +2565,11 @@
       <c r="K8" s="2" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2532,8 +2595,11 @@
         <v>600</v>
       </c>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2557,8 +2623,11 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2578,8 +2647,11 @@
         <v>601</v>
       </c>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H12" s="20">
         <v>16</v>
       </c>
@@ -2588,19 +2660,184 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="L12" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H13" s="20">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>44739</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>550</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
+        <f>SUM(L3:L13)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H15" s="23">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H16" s="23">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="L17" s="2">
+        <f>SUM(L14:L16)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>603</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>604</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>608</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>609</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>610</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>611</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6681,7 +6918,7 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7278,7 +7515,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>501</v>
       </c>
@@ -7302,7 +7539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>500</v>
       </c>
@@ -7323,7 +7560,7 @@
         <v>3904000</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>500</v>
       </c>
@@ -7340,7 +7577,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>26</v>
       </c>
@@ -7354,7 +7591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>27</v>
       </c>
@@ -7368,7 +7605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>28</v>
       </c>
@@ -7391,7 +7628,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>23361.73</v>
       </c>
@@ -7417,7 +7654,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>30</v>
       </c>
@@ -7439,8 +7676,14 @@
       <c r="Y24">
         <v>3000</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <v>100000</v>
+      </c>
+      <c r="AA24">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="W25" t="s">
         <v>498</v>
       </c>
@@ -7450,8 +7693,14 @@
       <c r="Y25">
         <v>3000</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z25">
+        <v>100000</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>3000</v>
       </c>
@@ -7464,8 +7713,14 @@
       <c r="Y26">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z26">
+        <v>200000</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>11750</v>
       </c>
@@ -7475,19 +7730,22 @@
       <c r="Y27">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z27">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>5606</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D30">
         <f>SUM(D26:D29)</f>
         <v>20356</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D32">
         <f>(D23-D30)</f>
         <v>3005.7299999999996</v>

--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLines" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="623">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -1770,15 +1770,6 @@
     <t>End to end CI/CD project using jenkins - 05</t>
   </si>
   <si>
-    <t>Containers with Docker</t>
-  </si>
-  <si>
-    <t>Build Automation &amp; CI/CD with Jenkins</t>
-  </si>
-  <si>
-    <t>AWS Services</t>
-  </si>
-  <si>
     <t>Container Orchestration with Kubernetes</t>
   </si>
   <si>
@@ -1839,9 +1830,6 @@
     <t>All Interview Questions</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not necessary to execute the Exercises but need to be </t>
   </si>
   <si>
@@ -1875,9 +1863,6 @@
     <t>DevSecOps</t>
   </si>
   <si>
-    <t>Udemy</t>
-  </si>
-  <si>
     <t>DevOps Flow</t>
   </si>
   <si>
@@ -1894,6 +1879,12 @@
   </si>
   <si>
     <t>Kubernetes EFK</t>
+  </si>
+  <si>
+    <t>AWS Certified DevOps Engineer Professional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon EKS </t>
   </si>
 </sst>
 </file>
@@ -1973,7 +1964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2016,11 +2007,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2331,13 +2318,13 @@
   <dimension ref="A2:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2348,16 +2335,20 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H3" s="24">
+      <c r="H3" s="20">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="L3" s="21">
         <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4">
-        <v>3</v>
       </c>
       <c r="N3">
         <v>9</v>
@@ -2385,16 +2376,20 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="H4" s="24">
-        <v>8</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="20">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4">
-        <v>4</v>
+      <c r="J4" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0</v>
       </c>
       <c r="N4">
         <v>130</v>
@@ -2425,19 +2420,17 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5" s="24">
-        <v>9</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
+      <c r="H5" s="20">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
       <c r="N5">
         <v>330</v>
       </c>
@@ -2468,26 +2461,22 @@
         <v>2</v>
       </c>
       <c r="H6" s="20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="L6" s="21">
-        <v>7</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
       <c r="P6">
         <f>SUM(P3:P5)</f>
         <v>15</v>
       </c>
       <c r="Q6" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2510,20 +2499,16 @@
         <v>3</v>
       </c>
       <c r="H7" s="20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="L7" s="21">
-        <v>0</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="N7">
         <v>1130</v>
       </c>
@@ -2534,7 +2519,7 @@
         <v>4</v>
       </c>
       <c r="Q7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2554,20 +2539,18 @@
         <v>4</v>
       </c>
       <c r="H8" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="L8" s="22">
-        <v>4</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2586,18 +2569,16 @@
         <v>5</v>
       </c>
       <c r="H9" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="22">
-        <v>10</v>
-      </c>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2616,16 +2597,14 @@
         <v>6</v>
       </c>
       <c r="H10" s="20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="22">
-        <v>0</v>
-      </c>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2638,46 +2617,38 @@
         <v>471</v>
       </c>
       <c r="H11" s="20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="22">
-        <v>4</v>
-      </c>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H12" s="20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="22">
-        <v>3</v>
-      </c>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H13" s="20">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>619</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="22">
-        <v>1</v>
-      </c>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -2686,153 +2657,137 @@
       <c r="B14" t="s">
         <v>550</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="20">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>603</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2">
-        <f>SUM(L3:L13)</f>
-        <v>37</v>
-      </c>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H15" s="23">
-        <v>18</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="6">
-        <v>5</v>
-      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H16" s="23">
-        <v>19</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="L17" s="2">
-        <f>SUM(L14:L16)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H16" s="22"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>603</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>604</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>608</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>609</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>610</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>611</v>
-      </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
-      <c r="I24" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -7697,7 +7652,7 @@
         <v>100000</v>
       </c>
       <c r="AA25" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -7717,7 +7672,7 @@
         <v>200000</v>
       </c>
       <c r="AA26" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">

--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="627">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -1885,6 +1885,18 @@
   </si>
   <si>
     <t xml:space="preserve">Amazon EKS </t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>june</t>
+  </si>
+  <si>
+    <t>july</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2330,7 @@
   <dimension ref="A2:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,6 +2760,12 @@
       <c r="B22" t="s">
         <v>605</v>
       </c>
+      <c r="J22" t="s">
+        <v>623</v>
+      </c>
+      <c r="K22" t="s">
+        <v>624</v>
+      </c>
       <c r="O22">
         <v>5</v>
       </c>
@@ -2759,6 +2777,12 @@
       <c r="B23" t="s">
         <v>606</v>
       </c>
+      <c r="J23" t="s">
+        <v>624</v>
+      </c>
+      <c r="K23" t="s">
+        <v>625</v>
+      </c>
       <c r="O23">
         <v>6</v>
       </c>
@@ -2772,6 +2796,12 @@
       </c>
       <c r="B24" t="s">
         <v>607</v>
+      </c>
+      <c r="J24" t="s">
+        <v>625</v>
+      </c>
+      <c r="K24" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -2801,8 +2831,8 @@
   <dimension ref="A1:E371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142:B144"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C292" sqref="C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6873,7 +6903,7 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7545,6 +7575,12 @@
       <c r="J20">
         <v>49</v>
       </c>
+      <c r="N20">
+        <v>100000</v>
+      </c>
+      <c r="O20">
+        <v>115000</v>
+      </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G21">

--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLines" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="633">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -1897,6 +1897,24 @@
   </si>
   <si>
     <t>july</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>12 ~ 16</t>
+  </si>
+  <si>
+    <t>10 ~ 11</t>
+  </si>
+  <si>
+    <t>9 ~ 12 ~ 16</t>
+  </si>
+  <si>
+    <t>1 ~ 8</t>
+  </si>
+  <si>
+    <t>Interview Prep</t>
   </si>
 </sst>
 </file>
@@ -2327,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q26"/>
+  <dimension ref="A2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,110 +2711,149 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>599</v>
       </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>600</v>
       </c>
-      <c r="O19">
-        <v>2</v>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>615</v>
+      </c>
+      <c r="N19" s="8">
+        <v>38078</v>
+      </c>
+      <c r="O19" s="8">
+        <v>43191</v>
       </c>
       <c r="P19" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>601</v>
       </c>
-      <c r="O20">
-        <v>3</v>
-      </c>
-      <c r="P20" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>616</v>
+      </c>
+      <c r="N20" s="8">
+        <v>43556</v>
+      </c>
+      <c r="O20" s="8">
+        <v>37012</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>604</v>
       </c>
-      <c r="O21">
-        <v>4</v>
-      </c>
-      <c r="P21" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>617</v>
+      </c>
+      <c r="N21" s="8">
+        <v>37377</v>
+      </c>
+      <c r="O21" s="8">
+        <v>42125</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>605</v>
       </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>618</v>
+      </c>
       <c r="J22" t="s">
         <v>623</v>
       </c>
       <c r="K22" t="s">
         <v>624</v>
       </c>
-      <c r="O22">
-        <v>5</v>
-      </c>
-      <c r="P22" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N22" s="8">
+        <v>42491</v>
+      </c>
+      <c r="O22" s="8">
+        <v>44682</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>606</v>
       </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>619</v>
+      </c>
       <c r="J23" t="s">
         <v>624</v>
       </c>
       <c r="K23" t="s">
         <v>625</v>
       </c>
-      <c r="O23">
-        <v>6</v>
-      </c>
-      <c r="P23" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>607</v>
       </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>620</v>
+      </c>
       <c r="J24" t="s">
         <v>625</v>
       </c>
@@ -2804,7 +2861,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2812,12 +2869,50 @@
         <v>608</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J27" s="8">
+        <v>38078</v>
+      </c>
+      <c r="K27" s="8">
+        <v>43191</v>
+      </c>
+      <c r="L27" t="s">
+        <v>627</v>
+      </c>
+      <c r="M27" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J28" s="8">
+        <v>43556</v>
+      </c>
+      <c r="K28" s="8">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J29" s="8">
+        <v>43586</v>
+      </c>
+      <c r="K29" s="8">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J30" s="8">
+        <v>43617</v>
+      </c>
+      <c r="K30" s="8">
+        <v>43282</v>
       </c>
     </row>
   </sheetData>
@@ -2830,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E371"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C292" sqref="C292"/>
     </sheetView>
   </sheetViews>

--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLines" sheetId="4" r:id="rId1"/>
     <sheet name="DB-N" sheetId="1" r:id="rId2"/>
-    <sheet name="Accounts" sheetId="5" r:id="rId3"/>
+    <sheet name="Topics" sheetId="6" r:id="rId3"/>
+    <sheet name="Accounts" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="646">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -1848,12 +1849,6 @@
     <t xml:space="preserve">Do not celebrate for small achievements or small findings. </t>
   </si>
   <si>
-    <t>Sleep</t>
-  </si>
-  <si>
-    <t>Study</t>
-  </si>
-  <si>
     <t>Dad</t>
   </si>
   <si>
@@ -1887,34 +1882,79 @@
     <t xml:space="preserve">Amazon EKS </t>
   </si>
   <si>
-    <t>apr</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>june</t>
-  </si>
-  <si>
-    <t>july</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>12 ~ 16</t>
-  </si>
-  <si>
-    <t>10 ~ 11</t>
-  </si>
-  <si>
-    <t>9 ~ 12 ~ 16</t>
-  </si>
-  <si>
-    <t>1 ~ 8</t>
-  </si>
-  <si>
-    <t>Interview Prep</t>
+    <t>S No</t>
+  </si>
+  <si>
+    <t>Topics I Learned</t>
+  </si>
+  <si>
+    <t>Topics Very Important</t>
+  </si>
+  <si>
+    <t>Start Studying for Next Job.</t>
+  </si>
+  <si>
+    <t>I left all the hopes on this Job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If I do both things, I will never finish it of. </t>
+  </si>
+  <si>
+    <t>Moreover 3 months is long time for resign.</t>
+  </si>
+  <si>
+    <t>If I resign, they will provide me less work or no work due to condolance on me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can also prepare for the interviews. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will also have dead line to preapre. </t>
+  </si>
+  <si>
+    <t>Technically from today I have resigned from the company.</t>
+  </si>
+  <si>
+    <t>Inform Jaka about ill health of father.</t>
+  </si>
+  <si>
+    <t>Timelines</t>
+  </si>
+  <si>
+    <t>Inform Jaka about loss. And tell him that I would re-join after rituals are completed.</t>
+  </si>
+  <si>
+    <t>Start with Monitoring with Kubernetes.</t>
+  </si>
+  <si>
+    <t>Rejoining Day</t>
+  </si>
+  <si>
+    <t>By this Day, I should complete Monitoring, Ansible, Python, Terraform and AWS</t>
+  </si>
+  <si>
+    <t>Discuss with Jaka about the Resign.</t>
+  </si>
+  <si>
+    <t>Start Kubernetes</t>
+  </si>
+  <si>
+    <t>Finish Kubernetes</t>
+  </si>
+  <si>
+    <t>Start from Introduction to Build Automation</t>
+  </si>
+  <si>
+    <t>Finish 1 ~ 8</t>
+  </si>
+  <si>
+    <t>Start Preparing for Interviews</t>
+  </si>
+  <si>
+    <t>Finish Studying for interviews and Get Prepared</t>
+  </si>
+  <si>
+    <t>Start Interviews</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +2034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2040,6 +2080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2345,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q30"/>
+  <dimension ref="A2:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,12 +2400,15 @@
     <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H3" s="20">
         <v>10</v>
       </c>
@@ -2380,17 +2424,14 @@
       <c r="L3" s="21">
         <v>7</v>
       </c>
-      <c r="N3">
-        <v>9</v>
-      </c>
-      <c r="O3">
-        <v>12</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N3" s="23">
+        <v>44650</v>
+      </c>
+      <c r="O3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2421,17 +2462,11 @@
       <c r="L4" s="21">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>130</v>
-      </c>
-      <c r="O4">
-        <v>1130</v>
-      </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2454,24 +2489,18 @@
         <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>591</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="N5">
-        <v>330</v>
-      </c>
-      <c r="O5">
-        <v>530</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2494,22 +2523,18 @@
         <v>13</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>591</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="P6">
-        <f>SUM(P3:P5)</f>
-        <v>15</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2532,27 +2557,18 @@
         <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>591</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="N7">
-        <v>1130</v>
-      </c>
-      <c r="O7">
-        <v>330</v>
-      </c>
-      <c r="P7">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2581,8 +2597,11 @@
         <v>594</v>
       </c>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2609,8 +2628,11 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2635,8 +2657,11 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2657,8 +2682,11 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H12" s="20">
         <v>19</v>
       </c>
@@ -2668,8 +2696,11 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H13" s="20">
         <v>20</v>
       </c>
@@ -2680,7 +2711,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44739</v>
       </c>
@@ -2696,37 +2727,55 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="23">
+        <v>44655</v>
+      </c>
+      <c r="O14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="22"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="22"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="23">
+        <v>44669</v>
+      </c>
+      <c r="O16" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2737,22 +2786,10 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>615</v>
-      </c>
-      <c r="N19" s="8">
-        <v>38078</v>
-      </c>
-      <c r="O19" s="8">
-        <v>43191</v>
-      </c>
-      <c r="P19" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2763,19 +2800,16 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>616</v>
-      </c>
-      <c r="N20" s="8">
-        <v>43556</v>
-      </c>
-      <c r="O20" s="8">
-        <v>37012</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="N20" s="23">
+        <v>44670</v>
+      </c>
+      <c r="O20" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2786,19 +2820,10 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>617</v>
-      </c>
-      <c r="N21" s="8">
-        <v>37377</v>
-      </c>
-      <c r="O21" s="8">
-        <v>42125</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>605</v>
       </c>
@@ -2806,25 +2831,16 @@
         <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>618</v>
-      </c>
-      <c r="J22" t="s">
-        <v>623</v>
-      </c>
-      <c r="K22" t="s">
-        <v>624</v>
-      </c>
-      <c r="N22" s="8">
-        <v>42491</v>
-      </c>
-      <c r="O22" s="8">
+        <v>616</v>
+      </c>
+      <c r="N22" s="23">
         <v>44682</v>
       </c>
-      <c r="Q22" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>606</v>
       </c>
@@ -2832,16 +2848,10 @@
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>619</v>
-      </c>
-      <c r="J23" t="s">
-        <v>624</v>
-      </c>
-      <c r="K23" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2852,16 +2862,16 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>620</v>
-      </c>
-      <c r="J24" t="s">
-        <v>625</v>
-      </c>
-      <c r="K24" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="N24" s="23">
+        <v>44683</v>
+      </c>
+      <c r="O24" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2869,50 +2879,54 @@
         <v>608</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J27" s="8">
-        <v>38078</v>
-      </c>
-      <c r="K27" s="8">
-        <v>43191</v>
-      </c>
-      <c r="L27" t="s">
-        <v>627</v>
-      </c>
-      <c r="M27" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J28" s="8">
-        <v>43556</v>
-      </c>
-      <c r="K28" s="8">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J29" s="8">
-        <v>43586</v>
-      </c>
-      <c r="K29" s="8">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="8">
-        <v>43617</v>
-      </c>
-      <c r="K30" s="8">
-        <v>43282</v>
+      <c r="N26" s="23">
+        <v>44696</v>
+      </c>
+      <c r="O26" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="N28" s="23">
+        <v>44697</v>
+      </c>
+      <c r="O28" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="N29" s="23">
+        <v>44703</v>
+      </c>
+      <c r="O29" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N31" s="23">
+        <v>44704</v>
+      </c>
+      <c r="O31" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +2939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C292" sqref="C292"/>
     </sheetView>
@@ -6995,6 +7009,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7783,7 +7827,7 @@
         <v>100000</v>
       </c>
       <c r="AA25" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -7803,7 +7847,7 @@
         <v>200000</v>
       </c>
       <c r="AA26" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">

--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -1954,7 +1954,7 @@
     <t>Finish Studying for interviews and Get Prepared</t>
   </si>
   <si>
-    <t>Start Interviews</t>
+    <t>Start Interviews &amp; All the Best</t>
   </si>
 </sst>
 </file>
@@ -2389,7 +2389,7 @@
   <dimension ref="A2:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:P31"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="648">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -1955,6 +1955,12 @@
   </si>
   <si>
     <t>Start Interviews &amp; All the Best</t>
+  </si>
+  <si>
+    <t>Send mail to Jaka</t>
+  </si>
+  <si>
+    <t>Prometheus Installation</t>
   </si>
 </sst>
 </file>
@@ -2386,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O31"/>
+  <dimension ref="A2:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,10 +2734,10 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="N14" s="23">
-        <v>44655</v>
+        <v>44651</v>
       </c>
       <c r="O14" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2748,10 +2754,10 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="N16" s="23">
-        <v>44669</v>
+        <v>44653</v>
       </c>
       <c r="O16" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2760,9 +2766,6 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="O17" t="s">
-        <v>637</v>
-      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2771,9 +2774,7 @@
       <c r="B18" t="s">
         <v>599</v>
       </c>
-      <c r="O18" t="s">
-        <v>638</v>
-      </c>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2783,7 +2784,7 @@
         <v>600</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
         <v>613</v>
@@ -2797,16 +2798,16 @@
         <v>601</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" t="s">
         <v>614</v>
       </c>
       <c r="N20" s="23">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="O20" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2817,10 +2818,13 @@
         <v>604</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" t="s">
         <v>615</v>
+      </c>
+      <c r="O21" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2828,16 +2832,13 @@
         <v>605</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" t="s">
         <v>616</v>
       </c>
-      <c r="N22" s="23">
-        <v>44682</v>
-      </c>
       <c r="O22" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2845,7 +2846,7 @@
         <v>606</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" t="s">
         <v>617</v>
@@ -2859,16 +2860,16 @@
         <v>607</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I24" t="s">
         <v>618</v>
       </c>
       <c r="N24" s="23">
-        <v>44683</v>
+        <v>44670</v>
       </c>
       <c r="O24" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2878,6 +2879,12 @@
       <c r="B25" t="s">
         <v>608</v>
       </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2887,10 +2894,10 @@
         <v>609</v>
       </c>
       <c r="N26" s="23">
-        <v>44696</v>
+        <v>44682</v>
       </c>
       <c r="O26" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2901,31 +2908,47 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="N28" s="23">
-        <v>44697</v>
+        <v>44683</v>
       </c>
       <c r="O28" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="N29" s="23">
-        <v>44703</v>
-      </c>
-      <c r="O29" t="s">
-        <v>644</v>
-      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N31" s="23">
+      <c r="N30" s="23">
+        <v>44696</v>
+      </c>
+      <c r="O30" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N32" s="23">
+        <v>44697</v>
+      </c>
+      <c r="O32" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N33" s="23">
+        <v>44703</v>
+      </c>
+      <c r="O33" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N35" s="23">
         <v>44704</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O35" t="s">
         <v>645</v>
       </c>
     </row>
@@ -2940,8 +2963,8 @@
   <dimension ref="A1:E371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C292" sqref="C292"/>
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLines" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="650">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -1882,9 +1882,6 @@
     <t xml:space="preserve">Amazon EKS </t>
   </si>
   <si>
-    <t>S No</t>
-  </si>
-  <si>
     <t>Topics I Learned</t>
   </si>
   <si>
@@ -1961,6 +1958,15 @@
   </si>
   <si>
     <t>Prometheus Installation</t>
+  </si>
+  <si>
+    <t>Prometheus</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -2040,7 +2046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2087,6 +2093,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2394,7 +2401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -2411,7 +2418,7 @@
         <v>462</v>
       </c>
       <c r="N2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2434,7 +2441,7 @@
         <v>44650</v>
       </c>
       <c r="O3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2469,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2503,7 +2510,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="O5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2537,7 +2544,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="O6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2571,7 +2578,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="O7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2604,7 +2611,7 @@
       </c>
       <c r="L8" s="2"/>
       <c r="O8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2635,7 +2642,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="O9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2664,7 +2671,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="O10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2689,7 +2696,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="O11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2703,7 +2710,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="O12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2737,7 +2744,7 @@
         <v>44651</v>
       </c>
       <c r="O14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2757,7 +2764,7 @@
         <v>44653</v>
       </c>
       <c r="O16" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2807,7 +2814,7 @@
         <v>44669</v>
       </c>
       <c r="O20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2824,7 +2831,7 @@
         <v>615</v>
       </c>
       <c r="O21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2838,7 +2845,7 @@
         <v>616</v>
       </c>
       <c r="O22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2869,7 +2876,7 @@
         <v>44670</v>
       </c>
       <c r="O24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2883,7 +2890,7 @@
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2897,7 +2904,7 @@
         <v>44682</v>
       </c>
       <c r="O26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2911,7 +2918,7 @@
         <v>44683</v>
       </c>
       <c r="O28" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2925,7 +2932,7 @@
         <v>44696</v>
       </c>
       <c r="O30" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2933,7 +2940,7 @@
         <v>44697</v>
       </c>
       <c r="O32" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="14:15" x14ac:dyDescent="0.25">
@@ -2941,7 +2948,7 @@
         <v>44703</v>
       </c>
       <c r="O33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="14:15" x14ac:dyDescent="0.25">
@@ -2949,7 +2956,7 @@
         <v>44704</v>
       </c>
       <c r="O35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -7032,27 +7039,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1" t="s">
         <v>621</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>622</v>
       </c>
-      <c r="C1" t="s">
-        <v>623</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>44649</v>
+      </c>
+      <c r="B2" s="24">
+        <v>44651</v>
+      </c>
+      <c r="C2" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="651">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -1967,6 +1967,9 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>Ansible</t>
   </si>
 </sst>
 </file>
@@ -7039,10 +7042,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="B10:C10"/>
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7075,6 +7078,30 @@
       </c>
       <c r="C2" t="s">
         <v>647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>44652</v>
+      </c>
+      <c r="C3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>44653</v>
+      </c>
+      <c r="C4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>44654</v>
+      </c>
+      <c r="C5" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLines" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="652">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -1585,9 +1585,6 @@
     <t>OFFICE IN BLR &amp; RESIGN 2</t>
   </si>
   <si>
-    <t>Mama</t>
-  </si>
-  <si>
     <t>Electrical</t>
   </si>
   <si>
@@ -1970,6 +1967,12 @@
   </si>
   <si>
     <t>Ansible</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Books</t>
   </si>
 </sst>
 </file>
@@ -2421,7 +2424,7 @@
         <v>462</v>
       </c>
       <c r="N2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2429,13 +2432,13 @@
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="L3" s="21">
         <v>7</v>
@@ -2444,7 +2447,7 @@
         <v>44650</v>
       </c>
       <c r="O3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2467,19 +2470,19 @@
         <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="L4" s="21">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2505,15 +2508,15 @@
         <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="O5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2539,15 +2542,15 @@
         <v>13</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="O6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2573,15 +2576,15 @@
         <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="O7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2604,17 +2607,17 @@
         <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L8" s="2"/>
       <c r="O8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2637,15 +2640,15 @@
         <v>16</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="O9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2668,13 +2671,13 @@
         <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="O10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2691,15 +2694,15 @@
         <v>18</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="O11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2707,13 +2710,13 @@
         <v>19</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="O12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2721,7 +2724,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2732,13 +2735,13 @@
         <v>44739</v>
       </c>
       <c r="B14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H14" s="20">
         <v>21</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2747,7 +2750,7 @@
         <v>44651</v>
       </c>
       <c r="O14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2767,7 +2770,7 @@
         <v>44653</v>
       </c>
       <c r="O16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2782,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N18" s="23"/>
     </row>
@@ -2791,13 +2794,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2805,19 +2808,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H20">
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N20" s="23">
         <v>44669</v>
       </c>
       <c r="O20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2825,41 +2828,41 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H21">
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H22">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H23">
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2867,19 +2870,19 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H24">
         <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N24" s="23">
         <v>44670</v>
       </c>
       <c r="O24" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2887,13 +2890,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H25">
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2901,13 +2904,13 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N26" s="23">
         <v>44682</v>
       </c>
       <c r="O26" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2921,7 +2924,7 @@
         <v>44683</v>
       </c>
       <c r="O28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2935,7 +2938,7 @@
         <v>44696</v>
       </c>
       <c r="O30" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2943,7 +2946,7 @@
         <v>44697</v>
       </c>
       <c r="O32" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="14:15" x14ac:dyDescent="0.25">
@@ -2951,7 +2954,7 @@
         <v>44703</v>
       </c>
       <c r="O33" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="14:15" x14ac:dyDescent="0.25">
@@ -2959,7 +2962,7 @@
         <v>44704</v>
       </c>
       <c r="O35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3049,7 +3052,7 @@
         <v>44630</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>253</v>
@@ -3285,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -4140,7 +4143,7 @@
         <v>375</v>
       </c>
       <c r="E114" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4157,7 +4160,7 @@
         <v>406</v>
       </c>
       <c r="E115" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4174,7 +4177,7 @@
         <v>409</v>
       </c>
       <c r="E116" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4191,7 +4194,7 @@
         <v>410</v>
       </c>
       <c r="E117" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4206,7 +4209,7 @@
         <v>416</v>
       </c>
       <c r="E118" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4221,7 +4224,7 @@
         <v>417</v>
       </c>
       <c r="E119" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4236,7 +4239,7 @@
         <v>418</v>
       </c>
       <c r="E120" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4251,7 +4254,7 @@
         <v>421</v>
       </c>
       <c r="E121" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4268,7 +4271,7 @@
         <v>423</v>
       </c>
       <c r="E122" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4283,7 +4286,7 @@
         <v>424</v>
       </c>
       <c r="E123" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4298,7 +4301,7 @@
         <v>425</v>
       </c>
       <c r="E124" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4313,7 +4316,7 @@
         <v>426</v>
       </c>
       <c r="E125" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4323,7 +4326,7 @@
         <v>428</v>
       </c>
       <c r="E126" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4338,7 +4341,7 @@
         <v>427</v>
       </c>
       <c r="E127" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4362,7 +4365,7 @@
         <v>429</v>
       </c>
       <c r="E129" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4377,7 +4380,7 @@
         <v>430</v>
       </c>
       <c r="E130" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4392,7 +4395,7 @@
         <v>431</v>
       </c>
       <c r="E131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4404,7 +4407,7 @@
         <v>456</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D133" s="2"/>
     </row>
@@ -4573,13 +4576,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>457</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D150" s="2"/>
     </row>
@@ -5147,7 +5150,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>459</v>
@@ -5385,7 +5388,7 @@
         <v>164</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D216" s="2"/>
     </row>
@@ -5455,7 +5458,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>460</v>
@@ -5753,7 +5756,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>461</v>
@@ -5939,7 +5942,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>474</v>
@@ -6251,7 +6254,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B304" s="5" t="s">
         <v>494</v>
@@ -6496,10 +6499,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C325" s="2"/>
     </row>
@@ -6688,10 +6691,10 @@
     </row>
     <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>257</v>
@@ -7044,7 +7047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
@@ -7057,16 +7060,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" t="s">
         <v>648</v>
       </c>
-      <c r="B1" t="s">
-        <v>649</v>
-      </c>
       <c r="C1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D1" t="s">
         <v>621</v>
-      </c>
-      <c r="D1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7077,7 +7080,7 @@
         <v>44651</v>
       </c>
       <c r="C2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7085,7 +7088,7 @@
         <v>44652</v>
       </c>
       <c r="C3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7093,7 +7096,7 @@
         <v>44653</v>
       </c>
       <c r="C4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7101,7 +7104,7 @@
         <v>44654</v>
       </c>
       <c r="C5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -7113,8 +7116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7129,13 +7132,13 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B1">
         <v>9750.73</v>
       </c>
       <c r="C1">
-        <v>106299</v>
+        <v>103085.9</v>
       </c>
       <c r="D1">
         <v>115861.73</v>
@@ -7156,13 +7159,13 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N1" s="13">
         <v>2022</v>
       </c>
       <c r="X1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y1">
         <v>100000</v>
@@ -7170,7 +7173,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -7188,16 +7191,16 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="X2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y2">
         <v>368000</v>
@@ -7211,7 +7214,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -7229,16 +7232,16 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M3" t="s">
         <v>499</v>
       </c>
       <c r="N3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="X3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y3">
         <v>200000</v>
@@ -7252,7 +7255,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>537</v>
+      </c>
+      <c r="C4">
+        <v>250</v>
       </c>
       <c r="D4">
         <v>7500</v>
@@ -7273,16 +7279,16 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M4" t="s">
         <v>463</v>
       </c>
       <c r="N4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="X4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y4">
         <v>280000</v>
@@ -7318,19 +7324,19 @@
         <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M5" t="s">
         <v>464</v>
       </c>
       <c r="N5" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>533</v>
+      </c>
+      <c r="X5" t="s">
         <v>532</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>534</v>
-      </c>
-      <c r="X5" t="s">
-        <v>533</v>
       </c>
       <c r="Y5">
         <v>468000</v>
@@ -7343,6 +7349,12 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C6">
+        <v>7350</v>
+      </c>
       <c r="F6">
         <v>7</v>
       </c>
@@ -7362,13 +7374,13 @@
         <v>465</v>
       </c>
       <c r="N6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="X6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Y6">
         <v>68000</v>
@@ -7382,7 +7394,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>529</v>
+        <v>528</v>
+      </c>
+      <c r="C7">
+        <v>3000</v>
       </c>
       <c r="D7">
         <v>3000</v>
@@ -7406,13 +7421,13 @@
         <v>466</v>
       </c>
       <c r="N7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="X7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Y7">
         <v>400000</v>
@@ -7420,7 +7435,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>525</v>
+        <v>524</v>
+      </c>
+      <c r="C8">
+        <v>23750</v>
       </c>
       <c r="D8">
         <v>11750</v>
@@ -7447,18 +7465,21 @@
         <v>467</v>
       </c>
       <c r="N8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Q8" t="s">
         <v>508</v>
       </c>
       <c r="X8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>522</v>
+        <v>650</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -7496,7 +7517,7 @@
         <v>519</v>
       </c>
       <c r="C10">
-        <v>5606</v>
+        <v>11212</v>
       </c>
       <c r="D10">
         <v>5606</v>
@@ -7532,7 +7553,7 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>SUM(C5:C10)</f>
-        <v>5606</v>
+        <v>48312</v>
       </c>
       <c r="D11">
         <f>SUM(D7:D10)</f>
@@ -7575,7 +7596,7 @@
       </c>
       <c r="C12">
         <f>(C1-C11)</f>
-        <v>100693</v>
+        <v>54773.899999999994</v>
       </c>
       <c r="D12">
         <f>(D5-D11)</f>
@@ -7899,7 +7920,7 @@
         <v>100000</v>
       </c>
       <c r="AA25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -7919,7 +7940,7 @@
         <v>200000</v>
       </c>
       <c r="AA26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">

--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -11,13 +11,14 @@
     <sheet name="DB-N" sheetId="1" r:id="rId2"/>
     <sheet name="Topics" sheetId="6" r:id="rId3"/>
     <sheet name="Accounts" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="757">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -1879,9 +1880,6 @@
     <t xml:space="preserve">Amazon EKS </t>
   </si>
   <si>
-    <t>Topics I Learned</t>
-  </si>
-  <si>
     <t>Topics Very Important</t>
   </si>
   <si>
@@ -1957,22 +1955,340 @@
     <t>Prometheus Installation</t>
   </si>
   <si>
-    <t>Prometheus</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Ansible</t>
-  </si>
-  <si>
     <t>Internet</t>
   </si>
   <si>
     <t>Books</t>
+  </si>
+  <si>
+    <t>No Mastrubation</t>
+  </si>
+  <si>
+    <t>No Cricket</t>
+  </si>
+  <si>
+    <t>Only focus on Nana DevOps Bootcamp and Related Videos</t>
+  </si>
+  <si>
+    <t>Study for long hours</t>
+  </si>
+  <si>
+    <t>Do not waste time at all</t>
+  </si>
+  <si>
+    <t>got 36 days to get a new job</t>
+  </si>
+  <si>
+    <t>Do only the right things</t>
+  </si>
+  <si>
+    <t>Have less food, In this one month I should not get the problem.</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>Interview Revision</t>
+  </si>
+  <si>
+    <t>Do not just watch the video</t>
+  </si>
+  <si>
+    <t>Make interview Questions.</t>
+  </si>
+  <si>
+    <t>Udemy Terraform</t>
+  </si>
+  <si>
+    <t>Jira</t>
+  </si>
+  <si>
+    <t>Update Linkedin</t>
+  </si>
+  <si>
+    <t>1 and Plan Procedure</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>As I started to learn from backwards, most of the topics are being referenced from previous topics, which I had to refer.</t>
+  </si>
+  <si>
+    <t>That is the reason, I am starting from front.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the last chance now. This time I have to attend the interviews. And the recent interview which I have given for teja is not up to the mark. </t>
+  </si>
+  <si>
+    <t>I could have done better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I should watch her all videos in slow motion and Note down each and every point and prepare there it self. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This should be incremental activity for each topic. </t>
+  </si>
+  <si>
+    <t>When I woke up in the morning. It should be final. No sleepings for 1 hour like that.</t>
+  </si>
+  <si>
+    <t>At least for this 36 days sleep from 11 - 1 and take care of reading.</t>
+  </si>
+  <si>
+    <t>AT each video try to frame the interview questions and answer them.</t>
+  </si>
+  <si>
+    <t>CKA-L</t>
+  </si>
+  <si>
+    <t>10, 11</t>
+  </si>
+  <si>
+    <t>From 1st June Search for Job</t>
+  </si>
+  <si>
+    <t>will have 46 days to get a new Job</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>W8</t>
+  </si>
+  <si>
+    <t>CKA-N</t>
+  </si>
+  <si>
+    <t>Udemy-KALYAN-EKS</t>
+  </si>
+  <si>
+    <t>Udemy-CKA</t>
+  </si>
+  <si>
+    <t>N-Terrafrom</t>
+  </si>
+  <si>
+    <t>AWS-R</t>
+  </si>
+  <si>
+    <t>AWS-StePhan</t>
+  </si>
+  <si>
+    <t>Resign Day</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Start Search for Job</t>
+  </si>
+  <si>
+    <t>Kids Drop</t>
+  </si>
+  <si>
+    <t>Kids Books</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t>Udemy AWS EKS</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>Explain the Kubernetes Architecture and working.</t>
+  </si>
+  <si>
+    <t>Explain the Kubernetes Components.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain the Ports that needs to be open to configure cluster. </t>
+  </si>
+  <si>
+    <t>Explain the steps involved in Kubrnetes Cluster installation.</t>
+  </si>
+  <si>
+    <t>How can we get the join command.</t>
+  </si>
+  <si>
+    <t>How do you validate Kubernetes Cluster after install.</t>
+  </si>
+  <si>
+    <t>What are static pods.</t>
+  </si>
+  <si>
+    <t>Explain the Pod creation process.</t>
+  </si>
+  <si>
+    <t>Explain the Pod life cycle.</t>
+  </si>
+  <si>
+    <t>Explain or write an manifest file.</t>
+  </si>
+  <si>
+    <t>Explain The replicaset and replication controller.</t>
+  </si>
+  <si>
+    <t>Explain Namespace</t>
+  </si>
+  <si>
+    <t>Explain the Kubenrtes Cluster upgrade process.</t>
+  </si>
+  <si>
+    <t>Explain ETCD backup and restore process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you provide high availability to K8S cluster. </t>
+  </si>
+  <si>
+    <t>Prepare Full Resume Along with Git</t>
+  </si>
+  <si>
+    <t>50 DevOps Questions</t>
+  </si>
+  <si>
+    <t>Prepare Excel and One Note for Course content</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>3 Courses</t>
+  </si>
+  <si>
+    <t>Python &amp; Automation with Python</t>
+  </si>
+  <si>
+    <t>Terraform</t>
+  </si>
+  <si>
+    <t>2 Udemy</t>
+  </si>
+  <si>
+    <t>1 Nana Courses</t>
+  </si>
+  <si>
+    <t>Resume GIT Topics</t>
+  </si>
+  <si>
+    <t>DB-N This includes GIT &amp; Ansible</t>
+  </si>
+  <si>
+    <t>Kubernetes Richard C</t>
+  </si>
+  <si>
+    <t>Kubernetes Srinath C</t>
+  </si>
+  <si>
+    <t>Kubernetes Nana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> question will be asked Note Down the question with answer</t>
+  </si>
+  <si>
+    <t>Make sure to Note the Topics learned in Excel and If I feel this</t>
+  </si>
+  <si>
+    <t>Kubernetes Gourav only with New topics</t>
+  </si>
+  <si>
+    <t>Udemy Terraform Courses Just check</t>
+  </si>
+  <si>
+    <t>EKS KalyanD</t>
+  </si>
+  <si>
+    <t>EKS Raj Saha</t>
+  </si>
+  <si>
+    <t>EKS AWS Stephen</t>
+  </si>
+  <si>
+    <t>AWS DevOps Stephen</t>
+  </si>
+  <si>
+    <t>Troubleshooting Kubernetes</t>
+  </si>
+  <si>
+    <t>Once all the courses are scanned, done entry in Excel</t>
+  </si>
+  <si>
+    <t>and One Note,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Learning Interview Questions from Deekshit and Other Channels </t>
+  </si>
+  <si>
+    <t>Like my one Note, 1000 DevOps in Phone app</t>
+  </si>
+  <si>
+    <t>5 Days</t>
+  </si>
+  <si>
+    <t>4 Days</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>10 Days</t>
+  </si>
+  <si>
+    <t>2 Days</t>
+  </si>
+  <si>
+    <t>2 Days Buffer</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Interview Questions All Topics</t>
+  </si>
+  <si>
+    <t>Depends On Prep</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2100,6 +2416,13 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2408,7 +2731,7 @@
   <dimension ref="A2:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,7 +2747,7 @@
         <v>462</v>
       </c>
       <c r="N2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2447,7 +2770,7 @@
         <v>44650</v>
       </c>
       <c r="O3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2482,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2516,7 +2839,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="O5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2550,7 +2873,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="O6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2584,7 +2907,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="O7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2617,7 +2940,7 @@
       </c>
       <c r="L8" s="2"/>
       <c r="O8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2648,7 +2971,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="O9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2677,7 +3000,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="O10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2702,7 +3025,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="O11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2716,7 +3039,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="O12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2750,7 +3073,7 @@
         <v>44651</v>
       </c>
       <c r="O14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2770,7 +3093,7 @@
         <v>44653</v>
       </c>
       <c r="O16" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2820,7 +3143,7 @@
         <v>44669</v>
       </c>
       <c r="O20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2837,7 +3160,7 @@
         <v>614</v>
       </c>
       <c r="O21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2851,7 +3174,7 @@
         <v>615</v>
       </c>
       <c r="O22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2882,7 +3205,7 @@
         <v>44670</v>
       </c>
       <c r="O24" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2896,7 +3219,7 @@
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2910,7 +3233,7 @@
         <v>44682</v>
       </c>
       <c r="O26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2924,7 +3247,7 @@
         <v>44683</v>
       </c>
       <c r="O28" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2938,7 +3261,7 @@
         <v>44696</v>
       </c>
       <c r="O30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2946,7 +3269,7 @@
         <v>44697</v>
       </c>
       <c r="O32" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="14:15" x14ac:dyDescent="0.25">
@@ -2954,7 +3277,7 @@
         <v>44703</v>
       </c>
       <c r="O33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="35" spans="14:15" x14ac:dyDescent="0.25">
@@ -2962,7 +3285,7 @@
         <v>44704</v>
       </c>
       <c r="O35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -7045,79 +7368,640 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>647</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C1" t="s">
         <v>620</v>
       </c>
-      <c r="D1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>44649</v>
-      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="24">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="C2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>44652</v>
-      </c>
-      <c r="C3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="24">
+        <v>44655</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="B4" s="24">
+        <v>44656</v>
+      </c>
+      <c r="C4" t="s">
+        <v>692</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>44653</v>
-      </c>
-      <c r="C4" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>44654</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="24">
+        <v>44657</v>
       </c>
       <c r="C5" t="s">
-        <v>649</v>
+        <v>685</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="24">
+        <v>44658</v>
+      </c>
+      <c r="C6" t="s">
+        <v>694</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="24">
+        <v>44659</v>
+      </c>
+      <c r="C7" t="s">
+        <v>693</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="24">
+        <v>44660</v>
+      </c>
+      <c r="C8" t="s">
+        <v>686</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="24">
+        <v>44661</v>
+      </c>
+      <c r="C9" t="s">
+        <v>704</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="24">
+        <v>44662</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>657</v>
+      </c>
+      <c r="B11" s="24">
+        <v>44663</v>
+      </c>
+      <c r="C11" t="s">
+        <v>696</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="24">
+        <v>44664</v>
+      </c>
+      <c r="C12" t="s">
+        <v>697</v>
+      </c>
+      <c r="G12" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="24">
+        <v>44665</v>
+      </c>
+      <c r="C13" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="24">
+        <v>44666</v>
+      </c>
+      <c r="C14" t="s">
+        <v>664</v>
+      </c>
+      <c r="G14" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="24">
+        <v>44667</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="24">
+        <v>44668</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="24">
+        <v>44669</v>
+      </c>
+      <c r="D17" t="s">
+        <v>698</v>
+      </c>
+      <c r="G17" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="B18" s="24">
+        <v>44670</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="24">
+        <v>44671</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24">
+        <v>44672</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="24">
+        <v>44673</v>
+      </c>
+      <c r="G21" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="24">
+        <v>44674</v>
+      </c>
+      <c r="G22" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="24">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="24">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="B25" s="24">
+        <v>44677</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="G25" s="23">
+        <v>44669</v>
+      </c>
+      <c r="H25" s="23">
+        <v>44698</v>
+      </c>
+      <c r="J25" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="24">
+        <v>44678</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="G26" s="23">
+        <v>44699</v>
+      </c>
+      <c r="H26" s="23">
+        <v>44729</v>
+      </c>
+      <c r="J26" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="24">
+        <v>44679</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="G27" s="23">
+        <v>44730</v>
+      </c>
+      <c r="H27" s="23">
+        <v>44759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="24">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="24">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="24">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="24">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>660</v>
+      </c>
+      <c r="B32" s="24">
+        <v>44684</v>
+      </c>
+      <c r="C32" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="24">
+        <v>44685</v>
+      </c>
+      <c r="C33" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="24">
+        <v>44686</v>
+      </c>
+      <c r="C34" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="24">
+        <v>44687</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="24">
+        <v>44688</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="24">
+        <v>44689</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="24">
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B39" s="24">
+        <v>44691</v>
+      </c>
+      <c r="C39" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="24">
+        <v>44692</v>
+      </c>
+      <c r="C40" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="24">
+        <v>44693</v>
+      </c>
+      <c r="C41" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="24">
+        <v>44694</v>
+      </c>
+      <c r="C42" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="24">
+        <v>44695</v>
+      </c>
+      <c r="C43" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="24">
+        <v>44696</v>
+      </c>
+      <c r="C44" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="24">
+        <v>44697</v>
+      </c>
+      <c r="C45" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>690</v>
+      </c>
+      <c r="B46" s="24">
+        <v>44698</v>
+      </c>
+      <c r="C46" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="24">
+        <v>44699</v>
+      </c>
+      <c r="C47" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="24">
+        <v>44700</v>
+      </c>
+      <c r="C48" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="24">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="24">
+        <v>44702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="24">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="24">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>691</v>
+      </c>
+      <c r="B53" s="24">
+        <v>44705</v>
+      </c>
+      <c r="C53" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="24">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="24">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="24">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="24">
+        <v>44709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="24">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="24">
+        <v>44711</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="24">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="24">
+        <v>44713</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7349,11 +8233,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>651</v>
+      <c r="A6" s="27" t="s">
+        <v>647</v>
       </c>
       <c r="C6">
-        <v>7350</v>
+        <v>7570</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -7475,11 +8359,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>650</v>
+      <c r="A9" s="27" t="s">
+        <v>646</v>
       </c>
       <c r="C9">
-        <v>3000</v>
+        <v>4536.46</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -7513,7 +8397,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="27" t="s">
         <v>519</v>
       </c>
       <c r="C10">
@@ -7553,7 +8437,7 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>SUM(C5:C10)</f>
-        <v>48312</v>
+        <v>50068.46</v>
       </c>
       <c r="D11">
         <f>SUM(D7:D10)</f>
@@ -7596,7 +8480,7 @@
       </c>
       <c r="C12">
         <f>(C1-C11)</f>
-        <v>54773.899999999994</v>
+        <v>53017.439999999995</v>
       </c>
       <c r="D12">
         <f>(D5-D11)</f>
@@ -7795,6 +8679,12 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>668</v>
+      </c>
+      <c r="C20">
+        <v>15000</v>
+      </c>
       <c r="G20">
         <v>26</v>
       </c>
@@ -7815,6 +8705,12 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>669</v>
+      </c>
+      <c r="C21">
+        <v>15000</v>
+      </c>
       <c r="G21">
         <v>27</v>
       </c>
@@ -7829,6 +8725,12 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>670</v>
+      </c>
+      <c r="C22">
+        <v>15000</v>
+      </c>
       <c r="G22">
         <v>28</v>
       </c>
@@ -7852,6 +8754,12 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>671</v>
+      </c>
+      <c r="C23">
+        <v>10000</v>
+      </c>
       <c r="D23">
         <v>23361.73</v>
       </c>
@@ -7878,6 +8786,12 @@
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>672</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
       <c r="G24">
         <v>30</v>
       </c>
@@ -7890,6 +8804,9 @@
       <c r="J24">
         <v>53</v>
       </c>
+      <c r="O24">
+        <v>50000</v>
+      </c>
       <c r="W24" t="s">
         <v>498</v>
       </c>
@@ -7907,6 +8824,15 @@
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>673</v>
+      </c>
+      <c r="C25">
+        <v>10000</v>
+      </c>
+      <c r="O25">
+        <v>100000</v>
+      </c>
       <c r="W25" t="s">
         <v>498</v>
       </c>
@@ -7924,9 +8850,18 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>674</v>
+      </c>
+      <c r="C26">
+        <v>15000</v>
+      </c>
       <c r="D26">
         <v>3000</v>
       </c>
+      <c r="O26">
+        <v>98000</v>
+      </c>
       <c r="W26" t="s">
         <v>498</v>
       </c>
@@ -7944,8 +8879,18 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>675</v>
+      </c>
+      <c r="C27">
+        <v>10000</v>
+      </c>
       <c r="D27">
         <v>11750</v>
+      </c>
+      <c r="O27">
+        <f>SUM(O24:O26)</f>
+        <v>248000</v>
       </c>
       <c r="X27" t="s">
         <v>467</v>
@@ -7960,6 +8905,18 @@
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>5606</v>
+      </c>
+      <c r="O28">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>79079</v>
+      </c>
+      <c r="O29">
+        <f>(O27-O28)</f>
+        <v>98000</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -7967,12 +8924,419 @@
         <f>SUM(D26:D29)</f>
         <v>20356</v>
       </c>
+      <c r="H30">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>23750</v>
+      </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D32">
         <f>(D23-D30)</f>
         <v>3005.7299999999996</v>
       </c>
+      <c r="H32">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f>SUM(H30:H32)</f>
+        <v>32356</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>701</v>
+      </c>
+      <c r="H34">
+        <f>(H29-H33)</f>
+        <v>46723</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G1" s="24">
+        <v>44657</v>
+      </c>
+      <c r="H1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G2" s="24">
+        <v>44658</v>
+      </c>
+      <c r="H2" t="s">
+        <v>726</v>
+      </c>
+      <c r="M2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>708</v>
+      </c>
+      <c r="G3" s="24">
+        <v>44660</v>
+      </c>
+      <c r="H3" t="s">
+        <v>722</v>
+      </c>
+      <c r="M3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>709</v>
+      </c>
+      <c r="H4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>710</v>
+      </c>
+      <c r="H5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>711</v>
+      </c>
+      <c r="H6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>712</v>
+      </c>
+      <c r="G7" s="24">
+        <v>44661</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>724</v>
+      </c>
+      <c r="J7" t="s">
+        <v>725</v>
+      </c>
+      <c r="M7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>713</v>
+      </c>
+      <c r="G8" s="24">
+        <v>44666</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>727</v>
+      </c>
+      <c r="J8" t="s">
+        <v>728</v>
+      </c>
+      <c r="K8" t="s">
+        <v>729</v>
+      </c>
+      <c r="M8" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>714</v>
+      </c>
+      <c r="I9" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G10" s="24">
+        <v>44667</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>730</v>
+      </c>
+      <c r="M10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>716</v>
+      </c>
+      <c r="G11" s="24">
+        <v>44668</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>731</v>
+      </c>
+      <c r="M11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>717</v>
+      </c>
+      <c r="G12" s="24">
+        <v>44678</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>732</v>
+      </c>
+      <c r="M12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>718</v>
+      </c>
+      <c r="G13" s="24">
+        <v>44679</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>733</v>
+      </c>
+      <c r="M13" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G14" s="24">
+        <v>44680</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>734</v>
+      </c>
+      <c r="M14" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>720</v>
+      </c>
+      <c r="G15" s="24">
+        <v>44681</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>737</v>
+      </c>
+      <c r="M15" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G17" s="24">
+        <v>44682</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>739</v>
+      </c>
+      <c r="M17" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G19" s="24">
+        <v>44684</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>741</v>
+      </c>
+      <c r="M19" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G20" s="24">
+        <v>44686</v>
+      </c>
+      <c r="H20">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>742</v>
+      </c>
+      <c r="M20" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="24">
+        <v>44688</v>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>611</v>
+      </c>
+      <c r="M21" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G22" s="24">
+        <v>44692</v>
+      </c>
+      <c r="H22" t="s">
+        <v>754</v>
+      </c>
+      <c r="I22" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="23" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="26" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G27" s="24">
+        <v>44693</v>
+      </c>
+      <c r="H27" s="24">
+        <v>44705</v>
+      </c>
+      <c r="I27" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H28" s="24">
+        <v>44713</v>
+      </c>
+      <c r="I28" t="s">
+        <v>756</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLines" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="758">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2289,6 +2289,9 @@
   </si>
   <si>
     <t>Depends On Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2368,7 +2371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2417,12 +2420,13 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7371,7 +7375,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -7398,7 +7402,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="24">
         <v>44655</v>
       </c>
@@ -7410,7 +7414,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -7427,7 +7431,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -7442,7 +7446,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -7457,7 +7461,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -7472,7 +7476,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -7487,7 +7491,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -7502,7 +7506,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -7514,7 +7518,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="27" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -7531,7 +7535,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -7543,7 +7547,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -7552,7 +7556,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -7564,7 +7568,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -7576,7 +7580,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -7588,7 +7592,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -7600,7 +7604,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="27" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -7614,7 +7618,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -7626,7 +7630,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -7638,7 +7642,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -7647,7 +7651,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -7656,19 +7660,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="27" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -7688,7 +7692,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -7706,7 +7710,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -7721,31 +7725,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="27" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -7756,7 +7760,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -7765,7 +7769,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -7774,7 +7778,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -7783,7 +7787,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -7792,7 +7796,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -7801,13 +7805,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="27" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -7818,7 +7822,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -7827,7 +7831,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -7836,7 +7840,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -7845,7 +7849,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -7854,7 +7858,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
+      <c r="A44" s="27"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -7863,7 +7867,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -7872,7 +7876,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="27" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -7883,7 +7887,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -7892,7 +7896,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -7901,31 +7905,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
+      <c r="A49" s="27"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="27" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -7936,37 +7940,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
+      <c r="A58" s="27"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -7983,14 +7987,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="A53:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8000,7 +8004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
@@ -8233,7 +8237,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>647</v>
       </c>
       <c r="C6">
@@ -8359,7 +8363,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>646</v>
       </c>
       <c r="C9">
@@ -8397,7 +8401,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>519</v>
       </c>
       <c r="C10">
@@ -8989,10 +8993,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9000,18 +9004,22 @@
     <col min="7" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>706</v>
       </c>
-      <c r="G1" s="24">
+      <c r="G1" s="28">
         <v>44657</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="26" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>707</v>
       </c>
@@ -9024,8 +9032,17 @@
       <c r="M2" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>708</v>
       </c>
@@ -9038,32 +9055,68 @@
       <c r="M3" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>709</v>
       </c>
       <c r="H4" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>710</v>
       </c>
       <c r="H5" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>711</v>
       </c>
       <c r="H6" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>712</v>
       </c>
@@ -9082,8 +9135,17 @@
       <c r="M7" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>713</v>
       </c>
@@ -9105,16 +9167,28 @@
       <c r="M8" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>714</v>
       </c>
       <c r="I9" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>715</v>
       </c>
@@ -9130,8 +9204,14 @@
       <c r="M10" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>716</v>
       </c>
@@ -9147,8 +9227,17 @@
       <c r="M11" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>717</v>
       </c>
@@ -9164,8 +9253,17 @@
       <c r="M12" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>718</v>
       </c>
@@ -9181,8 +9279,17 @@
       <c r="M13" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>719</v>
       </c>
@@ -9198,8 +9305,14 @@
       <c r="M14" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>720</v>
       </c>
@@ -9215,16 +9328,34 @@
       <c r="M15" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>9</v>
       </c>
       <c r="I16" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G17" s="24">
         <v>44682</v>
       </c>
@@ -9237,16 +9368,34 @@
       <c r="M17" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>11</v>
       </c>
       <c r="I18" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G19" s="24">
         <v>44684</v>
       </c>
@@ -9259,8 +9408,17 @@
       <c r="M19" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G20" s="24">
         <v>44686</v>
       </c>
@@ -9273,8 +9431,17 @@
       <c r="M20" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>19</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G21" s="24">
         <v>44688</v>
       </c>
@@ -9287,8 +9454,14 @@
       <c r="M21" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G22" s="24">
         <v>44692</v>
       </c>
@@ -9298,28 +9471,64 @@
       <c r="I22" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="23" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>21</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="23" spans="7:17" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>22</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="7:17" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>22</v>
+      </c>
+      <c r="P24">
+        <v>23</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="7:17" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="26" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>24</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="7:17" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G27" s="24">
         <v>44693</v>
       </c>
@@ -9330,7 +9539,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="28" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:17" x14ac:dyDescent="0.25">
       <c r="H28" s="24">
         <v>44713</v>
       </c>

--- a/avk_resume/.DBN-DSN.xlsx
+++ b/avk_resume/.DBN-DSN.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="743">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2136,51 +2136,6 @@
   </si>
   <si>
     <t>1, 2, 3</t>
-  </si>
-  <si>
-    <t>Explain the Kubernetes Architecture and working.</t>
-  </si>
-  <si>
-    <t>Explain the Kubernetes Components.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain the Ports that needs to be open to configure cluster. </t>
-  </si>
-  <si>
-    <t>Explain the steps involved in Kubrnetes Cluster installation.</t>
-  </si>
-  <si>
-    <t>How can we get the join command.</t>
-  </si>
-  <si>
-    <t>How do you validate Kubernetes Cluster after install.</t>
-  </si>
-  <si>
-    <t>What are static pods.</t>
-  </si>
-  <si>
-    <t>Explain the Pod creation process.</t>
-  </si>
-  <si>
-    <t>Explain the Pod life cycle.</t>
-  </si>
-  <si>
-    <t>Explain or write an manifest file.</t>
-  </si>
-  <si>
-    <t>Explain The replicaset and replication controller.</t>
-  </si>
-  <si>
-    <t>Explain Namespace</t>
-  </si>
-  <si>
-    <t>Explain the Kubenrtes Cluster upgrade process.</t>
-  </si>
-  <si>
-    <t>Explain ETCD backup and restore process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you provide high availability to K8S cluster. </t>
   </si>
   <si>
     <t>Prepare Full Resume Along with Git</t>
@@ -2423,10 +2378,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3302,9 +3257,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E371"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C321" sqref="C321"/>
+      <selection pane="bottomLeft" activeCell="D324" sqref="D324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7376,7 +7331,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7414,7 +7369,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -7431,7 +7386,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -7446,7 +7401,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -7461,7 +7416,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -7476,7 +7431,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -7491,7 +7446,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -7506,7 +7461,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -7518,7 +7473,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -7535,7 +7490,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -7547,7 +7502,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -7556,7 +7511,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -7568,7 +7523,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -7580,7 +7535,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -7592,7 +7547,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -7604,7 +7559,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="28" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -7618,7 +7573,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -7630,7 +7585,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -7642,7 +7597,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -7651,7 +7606,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -7660,19 +7615,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="28" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -7692,7 +7647,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -7710,7 +7665,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -7725,31 +7680,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="28" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -7760,7 +7715,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -7769,7 +7724,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -7778,7 +7733,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -7787,7 +7742,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -7796,7 +7751,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -7805,13 +7760,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="28" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -7822,7 +7777,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -7831,7 +7786,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -7840,7 +7795,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -7849,7 +7804,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -7858,7 +7813,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -7867,7 +7822,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -7876,7 +7831,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="28" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -7887,7 +7842,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -7896,7 +7851,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -7905,31 +7860,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="28" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -7940,37 +7895,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -8996,7 +8951,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22:Q25"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9006,13 +8961,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G1" s="27">
+        <v>44657</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>706</v>
-      </c>
-      <c r="G1" s="28">
-        <v>44657</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>721</v>
       </c>
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
@@ -9021,16 +8976,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>707</v>
+        <v>649</v>
       </c>
       <c r="G2" s="24">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="H2" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="M2" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="O2">
         <v>12</v>
@@ -9044,16 +8999,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>708</v>
+        <v>650</v>
       </c>
       <c r="G3" s="24">
-        <v>44660</v>
+        <v>44662</v>
       </c>
       <c r="H3" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="M3" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -9067,11 +9022,16 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>709</v>
-      </c>
-      <c r="H4" t="s">
-        <v>723</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="O4">
         <v>2</v>
       </c>
@@ -9084,11 +9044,16 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>710</v>
-      </c>
-      <c r="H5" t="s">
-        <v>736</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
       <c r="O5">
         <v>3</v>
       </c>
@@ -9101,11 +9066,16 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>711</v>
-      </c>
-      <c r="H6" t="s">
-        <v>735</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
       <c r="O6">
         <v>4</v>
       </c>
@@ -9118,22 +9088,22 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>712</v>
+        <v>654</v>
       </c>
       <c r="G7" s="24">
-        <v>44661</v>
+        <v>44663</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="J7" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="M7" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="O7">
         <v>5</v>
@@ -9147,25 +9117,25 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>713</v>
+        <v>655</v>
       </c>
       <c r="G8" s="24">
-        <v>44666</v>
+        <v>44667</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="J8" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="K8" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="M8" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="O8">
         <v>6</v>
@@ -9176,10 +9146,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>714</v>
+        <v>662</v>
       </c>
       <c r="I9" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="O9">
         <v>7</v>
@@ -9190,19 +9160,19 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>715</v>
+        <v>663</v>
       </c>
       <c r="G10" s="24">
-        <v>44667</v>
+        <v>44668</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="M10" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="O10">
         <v>8</v>
@@ -9212,20 +9182,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>716</v>
-      </c>
       <c r="G11" s="24">
-        <v>44668</v>
+        <v>44669</v>
       </c>
       <c r="H11">
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="M11" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="O11">
         <v>9</v>
@@ -9238,9 +9205,6 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>717</v>
-      </c>
       <c r="G12" s="24">
         <v>44678</v>
       </c>
@@ -9248,10 +9212,10 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="M12" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="O12">
         <v>10</v>
@@ -9264,9 +9228,6 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>718</v>
-      </c>
       <c r="G13" s="24">
         <v>44679</v>
       </c>
@@ -9274,10 +9235,10 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="M13" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="O13">
         <v>11</v>
@@ -9290,9 +9251,6 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>719</v>
-      </c>
       <c r="G14" s="24">
         <v>44680</v>
       </c>
@@ -9300,10 +9258,10 @@
         <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="M14" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="O14">
         <v>12</v>
@@ -9313,9 +9271,6 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>720</v>
-      </c>
       <c r="G15" s="24">
         <v>44681</v>
       </c>
@@ -9323,10 +9278,10 @@
         <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="M15" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="O15">
         <v>13</v>
@@ -9343,7 +9298,7 @@
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="O16">
         <v>14</v>
@@ -9363,10 +9318,10 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="M17" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="O17">
         <v>15</v>
@@ -9383,7 +9338,7 @@
         <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="O18">
         <v>16</v>
@@ -9403,10 +9358,10 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="M19" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="O19">
         <v>17</v>
@@ -9426,10 +9381,10 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="M20" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="O20">
         <v>18</v>
@@ -9452,7 +9407,7 @@
         <v>611</v>
       </c>
       <c r="M21" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="O21">
         <v>19</v>
@@ -9466,10 +9421,10 @@
         <v>44692</v>
       </c>
       <c r="H22" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="I22" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="O22">
         <v>20</v>
@@ -9478,12 +9433,12 @@
         <v>21</v>
       </c>
       <c r="Q22" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
     </row>
     <row r="23" spans="7:17" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="O23">
         <v>21</v>
@@ -9497,7 +9452,7 @@
     </row>
     <row r="24" spans="7:17" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="O24">
         <v>22</v>
@@ -9511,7 +9466,7 @@
     </row>
     <row r="25" spans="7:17" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="O25">
         <v>23</v>
@@ -9525,7 +9480,7 @@
     </row>
     <row r="26" spans="7:17" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="7:17" x14ac:dyDescent="0.25">
@@ -9536,7 +9491,7 @@
         <v>44705</v>
       </c>
       <c r="I27" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
     </row>
     <row r="28" spans="7:17" x14ac:dyDescent="0.25">
@@ -9544,7 +9499,7 @@
         <v>44713</v>
       </c>
       <c r="I28" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
